--- a/API/notification/controller_api_notification.xlsx
+++ b/API/notification/controller_api_notification.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="28665" yWindow="-15" windowWidth="28710" windowHeight="12600" tabRatio="874" activeTab="5"/>
+    <workbookView xWindow="28665" yWindow="-15" windowWidth="28710" windowHeight="12600" tabRatio="874" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="notification API list" sheetId="4" r:id="rId1"/>
@@ -13,16 +13,20 @@
     <sheet name="000201" sheetId="8" r:id="rId4"/>
     <sheet name="010101" sheetId="11" r:id="rId5"/>
     <sheet name="020101" sheetId="9" r:id="rId6"/>
+    <sheet name="040101" sheetId="12" r:id="rId7"/>
+    <sheet name="050101" sheetId="13" r:id="rId8"/>
+    <sheet name="060101" sheetId="14" r:id="rId9"/>
+    <sheet name="060201" sheetId="15" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Response code list'!$A$1:$K$15</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="474">
   <si>
     <t>string</t>
     <phoneticPr fontId="1"/>
@@ -1255,11 +1259,687 @@
     <t>operation result</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>PUT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>/v1/MSFcontroller/upgrade_operations</t>
+  </si>
+  <si>
+    <t>/v1/MSFcontroller/controller_status_notification/failure</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/v1/MSFcontroller/controller_status_notification/log</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/v1/MSFcontroller/controller_status_notification/failure</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/v1/MSFcontroller/controller_status_notification/log</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/v1/MSFcontroller/silent_failure</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/v1/MSFcontroller/controller_status_notification/log</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cluster_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>detection_trigger</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>failed_internal_links</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>object[ ]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>node_options</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fabric_type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>internal_link_if_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IF ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>monitoring_result</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>blockade_result</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cluster_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fabric_type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>node_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>os_upgrade_result</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/v1/MSFcontroller/controller_status_notification/failure</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>controller</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>object</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>controller_type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>system_type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>failure_info</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>object</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cpu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CPU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>use_rate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>memory</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>used</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>free</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>disk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>devices</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>object[]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>file_system</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mounted_on</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>controller</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>object</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>controller_type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"fc_act"：FC(ACT)
+"ec_act"：EC(ACT)
+"em_act"：EM(ACT)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>log_level</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"ERROR"
+"WARNING"
+"INFO"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>log</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Silent failure detection</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Switch OS upgrade</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Switch OS upgrade notification</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Controller error</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Controller log</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Controller error notification</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Controller log notification</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Silent failure detection</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PUT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/v1/MSFcontroller/silent_failure</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/v1/MSFcontroller/silent_failure</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Switch OS upgrade notification</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PUT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Controller error notification</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Controller log notification</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Interface name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Method</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>body</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>request</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>response</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">code </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>boyd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>allw null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>allow empty array</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Interface name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Method</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>allow null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Body uses JSON format.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Method</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>body</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>allow null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>overview</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>remarks</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cluster ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Trigger of detecting a failure</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"ping": Inter-switch ping monitoring in a cluster
+"ospfNbr": OSPF neighbor status monitoring</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>List of failure detection internal links</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Switch list</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A pair of leaf and spine switch that detected a silent failure</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Device type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"spine"
+"leaf"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Device ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Internal link IF ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IF type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"physical-if"
+"lag-if"
+"breakout-if"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Regular monitoring result</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"succeeded"
+"failed"
+When the "detection_trigger" is "ping", both Leaf and Spine set "failed".
+When the "detection_trigger" is "ospfNbr", both Leaf and Spine set "failed", or set "failed" on one side and "succeeded" on the other side.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IF shutdown result</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>In case of "monitoring_result" is "failed", 
+"completed "
+"failed "
+"none": no shutdown
+In case of "monitoring_result" is "succeeded", 
+"none": Do not shutdown because of succeess
+Specify null if the IF block execution necessity of config is "off"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cluster ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Device type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Switch OS upgrade result</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"succeeded"
+"failed"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cluster ID managed by controller</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>controller type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>system type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"fc_act": FC(ACT)
+"fc_sby": FC(SBY)
+"ec_act": EC(ACT)
+"ec_sby": EC(SBY)
+"em_act": EM(ACT)
+"em_sby": EM(SBY)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"operating_system": Operation system
+"ctl_process": controller process</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>failure information</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>One of the failure information is required</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CPU usage rate</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[%]</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>memory usage</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[KB]</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[KB]</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>free memory</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>disk usage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>If "system_type" is "operationg_system"
+: all devices specified in the configuration
+If "system_type" is "ctl_process"
+: device to which log is output</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>device information</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>device where the file system is located</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Specify file system path　
+ex) "/dev/sda1"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mount point</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Specify mount point 
+ex) "/home"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>total available capacity in file system</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[KB]</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>used capacity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>log level</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>log content</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store log output</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
   </numFmts>
@@ -1631,7 +2311,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="113">
+  <borders count="118">
     <border>
       <left/>
       <right/>
@@ -3047,6 +3727,71 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9729">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -32217,7 +32962,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="273">
+  <cellXfs count="337">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -32569,22 +33314,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -32593,42 +33323,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -32725,16 +33437,181 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -32830,6 +33707,87 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -32857,86 +33815,23 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -32959,24 +33854,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -33036,6 +33913,66 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="89" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="94" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="86" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="87" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9729">
@@ -42784,12 +43721,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -42831,7 +43771,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -42866,7 +43806,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -43078,229 +44018,371 @@
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:L8"/>
+  <dimension ref="B1:L12"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="2.375" style="10" customWidth="1"/>
     <col min="2" max="2" width="3.125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="19.75" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.125" style="7" customWidth="1"/>
     <col min="5" max="5" width="28.875" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.125" style="10" customWidth="1"/>
     <col min="7" max="7" width="29.375" style="10" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="10" customWidth="1"/>
     <col min="9" max="9" width="9" style="10" customWidth="1"/>
-    <col min="10" max="10" width="29.125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="49.875" style="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="34.25" style="10" customWidth="1"/>
-    <col min="12" max="12" width="40.875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="49.875" style="6" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="14.25" thickBot="1"/>
     <row r="2" spans="2:12" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="221" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="180" t="s">
+      <c r="C2" s="222"/>
+      <c r="D2" s="222"/>
+      <c r="E2" s="222"/>
+      <c r="F2" s="222"/>
+      <c r="G2" s="223"/>
+      <c r="H2" s="224" t="s">
         <v>135</v>
       </c>
-      <c r="I2" s="175" t="s">
+      <c r="I2" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="175" t="s">
+      <c r="J2" s="219" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="175" t="s">
+      <c r="K2" s="219" t="s">
         <v>147</v>
       </c>
-      <c r="L2" s="173" t="s">
+      <c r="L2" s="217" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="15" thickTop="1" thickBot="1">
-      <c r="B3" s="184" t="s">
+      <c r="B3" s="228" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="183"/>
-      <c r="D3" s="182" t="s">
+      <c r="C3" s="227"/>
+      <c r="D3" s="226" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="183"/>
-      <c r="F3" s="182" t="s">
+      <c r="E3" s="227"/>
+      <c r="F3" s="226" t="s">
         <v>133</v>
       </c>
-      <c r="G3" s="183"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="176"/>
-      <c r="J3" s="176"/>
-      <c r="K3" s="176"/>
-      <c r="L3" s="174"/>
+      <c r="G3" s="227"/>
+      <c r="H3" s="225"/>
+      <c r="I3" s="220"/>
+      <c r="J3" s="220"/>
+      <c r="K3" s="220"/>
+      <c r="L3" s="218"/>
     </row>
     <row r="4" spans="2:12" s="27" customFormat="1">
-      <c r="B4" s="169">
+      <c r="B4" s="213">
         <v>0</v>
       </c>
-      <c r="C4" s="171" t="s">
+      <c r="C4" s="215" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="126">
+      <c r="D4" s="120">
         <v>1</v>
       </c>
-      <c r="E4" s="126" t="s">
+      <c r="E4" s="120" t="s">
         <v>139</v>
       </c>
-      <c r="F4" s="127">
+      <c r="F4" s="121">
         <v>1</v>
       </c>
-      <c r="G4" s="127" t="s">
+      <c r="G4" s="121" t="s">
         <v>310</v>
       </c>
-      <c r="H4" s="128" t="str">
+      <c r="H4" s="121" t="str">
         <f>TEXT(LOOKUP(99,$B4:B$5),"00")&amp;TEXT(LOOKUP(99,$D4:D$4),"00")&amp;TEXT(F4,"00")</f>
         <v>000101</v>
       </c>
-      <c r="I4" s="127" t="s">
+      <c r="I4" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="127" t="s">
+      <c r="J4" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="129" t="s">
+      <c r="K4" s="122" t="s">
         <v>146</v>
       </c>
-      <c r="L4" s="123" t="s">
+      <c r="L4" s="118" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:12" s="27" customFormat="1">
-      <c r="B5" s="170"/>
-      <c r="C5" s="172"/>
-      <c r="D5" s="130">
+      <c r="B5" s="214"/>
+      <c r="C5" s="216"/>
+      <c r="D5" s="123">
         <v>2</v>
       </c>
-      <c r="E5" s="130" t="s">
+      <c r="E5" s="123" t="s">
         <v>140</v>
       </c>
-      <c r="F5" s="130">
+      <c r="F5" s="123">
         <v>1</v>
       </c>
-      <c r="G5" s="130" t="s">
+      <c r="G5" s="123" t="s">
         <v>143</v>
       </c>
-      <c r="H5" s="130" t="str">
+      <c r="H5" s="123" t="str">
         <f>TEXT(LOOKUP(99,$B4:B$5),"00")&amp;TEXT(LOOKUP(99,$D5:D$5),"00")&amp;TEXT(F5,"00")</f>
         <v>000201</v>
       </c>
-      <c r="I5" s="130" t="s">
+      <c r="I5" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="130" t="s">
+      <c r="J5" s="123" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="130" t="s">
+      <c r="K5" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="124" t="s">
+      <c r="L5" s="119" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="2:12" s="29" customFormat="1">
-      <c r="B6" s="131">
+      <c r="B6" s="163">
         <v>1</v>
       </c>
-      <c r="C6" s="132" t="s">
+      <c r="C6" s="162" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="133">
+      <c r="D6" s="123">
         <v>1</v>
       </c>
-      <c r="E6" s="133" t="s">
+      <c r="E6" s="123" t="s">
         <v>141</v>
       </c>
-      <c r="F6" s="133">
+      <c r="F6" s="123">
         <v>1</v>
       </c>
-      <c r="G6" s="133" t="s">
+      <c r="G6" s="123" t="s">
         <v>144</v>
       </c>
-      <c r="H6" s="133" t="str">
+      <c r="H6" s="123" t="str">
         <f>TEXT(LOOKUP(99,$B$5:B6),"00")&amp;TEXT(LOOKUP(99,$D$5:D6),"00")&amp;TEXT(F6,"00")</f>
         <v>010101</v>
       </c>
-      <c r="I6" s="130" t="s">
+      <c r="I6" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="130" t="s">
+      <c r="J6" s="123" t="s">
         <v>60</v>
       </c>
-      <c r="K6" s="133" t="s">
+      <c r="K6" s="123" t="s">
         <v>61</v>
       </c>
-      <c r="L6" s="125" t="s">
+      <c r="L6" s="119" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="134">
+      <c r="B7" s="124">
         <v>2</v>
       </c>
-      <c r="C7" s="135" t="s">
+      <c r="C7" s="125" t="s">
         <v>138</v>
       </c>
-      <c r="D7" s="135">
+      <c r="D7" s="125">
         <v>1</v>
       </c>
-      <c r="E7" s="135" t="s">
+      <c r="E7" s="125" t="s">
         <v>142</v>
       </c>
-      <c r="F7" s="133">
+      <c r="F7" s="123">
         <v>1</v>
       </c>
-      <c r="G7" s="133" t="s">
+      <c r="G7" s="123" t="s">
         <v>145</v>
       </c>
-      <c r="H7" s="133" t="str">
+      <c r="H7" s="123" t="str">
         <f>TEXT(LOOKUP(99,$B$5:B7),"00")&amp;TEXT(LOOKUP(99,$D$5:D7),"00")&amp;TEXT(F7,"00")</f>
         <v>020101</v>
       </c>
-      <c r="I7" s="130" t="s">
+      <c r="I7" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="130" t="s">
+      <c r="J7" s="123" t="s">
         <v>58</v>
       </c>
-      <c r="K7" s="136" t="s">
+      <c r="K7" s="161" t="s">
         <v>61</v>
       </c>
-      <c r="L7" s="125" t="s">
+      <c r="L7" s="119" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="84" customHeight="1">
-      <c r="B8" s="117"/>
-      <c r="C8" s="118"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="121"/>
-      <c r="K8" s="121"/>
-      <c r="L8" s="122"/>
+    <row r="8" spans="2:12">
+      <c r="B8" s="164"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="167"/>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="168">
+        <v>4</v>
+      </c>
+      <c r="C9" s="169" t="s">
+        <v>387</v>
+      </c>
+      <c r="D9" s="169">
+        <v>1</v>
+      </c>
+      <c r="E9" s="169" t="s">
+        <v>387</v>
+      </c>
+      <c r="F9" s="169">
+        <v>1</v>
+      </c>
+      <c r="G9" s="172" t="s">
+        <v>387</v>
+      </c>
+      <c r="H9" s="169" t="str">
+        <f>TEXT(LOOKUP(99,$B$5:B9),"00")&amp;TEXT(LOOKUP(99,$D$5:D9),"00")&amp;TEXT(F9,"00")</f>
+        <v>040101</v>
+      </c>
+      <c r="I9" s="169" t="s">
+        <v>311</v>
+      </c>
+      <c r="J9" s="169" t="s">
+        <v>396</v>
+      </c>
+      <c r="K9" s="170" t="s">
+        <v>318</v>
+      </c>
+      <c r="L9" s="171" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="168">
+        <v>5</v>
+      </c>
+      <c r="C10" s="169" t="s">
+        <v>388</v>
+      </c>
+      <c r="D10" s="169">
+        <v>1</v>
+      </c>
+      <c r="E10" s="169" t="s">
+        <v>388</v>
+      </c>
+      <c r="F10" s="169">
+        <v>1</v>
+      </c>
+      <c r="G10" s="169" t="s">
+        <v>389</v>
+      </c>
+      <c r="H10" s="169" t="str">
+        <f>TEXT(LOOKUP(99,$B$5:B10),"00")&amp;TEXT(LOOKUP(99,$D$5:D10),"00")&amp;TEXT(F10,"00")</f>
+        <v>050101</v>
+      </c>
+      <c r="I10" s="169" t="s">
+        <v>312</v>
+      </c>
+      <c r="J10" s="169" t="s">
+        <v>313</v>
+      </c>
+      <c r="K10" s="170" t="s">
+        <v>318</v>
+      </c>
+      <c r="L10" s="171" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="209">
+        <v>6</v>
+      </c>
+      <c r="C11" s="211" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="169">
+        <v>1</v>
+      </c>
+      <c r="E11" s="173" t="s">
+        <v>390</v>
+      </c>
+      <c r="F11" s="169">
+        <v>1</v>
+      </c>
+      <c r="G11" s="173" t="s">
+        <v>392</v>
+      </c>
+      <c r="H11" s="169" t="str">
+        <f>TEXT(LOOKUP(99,$B$11:B11),"00")&amp;TEXT(LOOKUP(99,$D$11:D11),"00")&amp;TEXT(F11,"00")</f>
+        <v>060101</v>
+      </c>
+      <c r="I11" s="169" t="s">
+        <v>312</v>
+      </c>
+      <c r="J11" s="169" t="s">
+        <v>316</v>
+      </c>
+      <c r="K11" s="170" t="s">
+        <v>319</v>
+      </c>
+      <c r="L11" s="174" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="14.25" thickBot="1">
+      <c r="B12" s="210"/>
+      <c r="C12" s="212"/>
+      <c r="D12" s="175">
+        <v>2</v>
+      </c>
+      <c r="E12" s="175" t="s">
+        <v>391</v>
+      </c>
+      <c r="F12" s="175">
+        <v>1</v>
+      </c>
+      <c r="G12" s="175" t="s">
+        <v>393</v>
+      </c>
+      <c r="H12" s="175" t="str">
+        <f>TEXT(LOOKUP(99,$B$11:B12),"00")&amp;TEXT(LOOKUP(99,$D$11:D12),"00")&amp;TEXT(F12,"00")</f>
+        <v>060201</v>
+      </c>
+      <c r="I12" s="175" t="s">
+        <v>312</v>
+      </c>
+      <c r="J12" s="175" t="s">
+        <v>317</v>
+      </c>
+      <c r="K12" s="176" t="s">
+        <v>318</v>
+      </c>
+      <c r="L12" s="177" t="s">
+        <v>321</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="L2:L3"/>
@@ -43315,7 +44397,360 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="67" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="56" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:N16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="2.625" style="158" customWidth="1"/>
+    <col min="2" max="2" width="10" style="158" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.125" style="158" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="3.125" style="158" customWidth="1"/>
+    <col min="8" max="8" width="14.25" style="158" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="158" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="158" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.75" style="158" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.875" style="158" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.625" style="158" customWidth="1"/>
+    <col min="14" max="14" width="41.25" style="158" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="158"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="14.25" thickBot="1"/>
+    <row r="2" spans="2:14">
+      <c r="B2" s="275" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="276"/>
+      <c r="D2" s="284" t="s">
+        <v>401</v>
+      </c>
+      <c r="E2" s="284"/>
+      <c r="F2" s="284"/>
+      <c r="G2" s="284"/>
+      <c r="H2" s="284"/>
+      <c r="I2" s="285"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+    </row>
+    <row r="3" spans="2:14" ht="14.25" thickBot="1">
+      <c r="B3" s="279" t="s">
+        <v>421</v>
+      </c>
+      <c r="C3" s="280"/>
+      <c r="D3" s="334" t="s">
+        <v>312</v>
+      </c>
+      <c r="E3" s="335"/>
+      <c r="F3" s="335"/>
+      <c r="G3" s="335"/>
+      <c r="H3" s="335"/>
+      <c r="I3" s="336"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+    </row>
+    <row r="4" spans="2:14" ht="14.25" thickBot="1">
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+    </row>
+    <row r="5" spans="2:14" ht="14.25" thickBot="1">
+      <c r="B5" s="260" t="s">
+        <v>376</v>
+      </c>
+      <c r="C5" s="261"/>
+      <c r="D5" s="288" t="s">
+        <v>315</v>
+      </c>
+      <c r="E5" s="288"/>
+      <c r="F5" s="288"/>
+      <c r="G5" s="288"/>
+      <c r="H5" s="288"/>
+      <c r="I5" s="288"/>
+      <c r="J5" s="288"/>
+      <c r="K5" s="288"/>
+      <c r="L5" s="288"/>
+      <c r="M5" s="288"/>
+      <c r="N5" s="289"/>
+    </row>
+    <row r="6" spans="2:14" ht="14.25" thickBot="1">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" spans="2:14" ht="14.25" thickBot="1">
+      <c r="B7" s="39" t="s">
+        <v>404</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>422</v>
+      </c>
+      <c r="D7" s="290" t="s">
+        <v>423</v>
+      </c>
+      <c r="E7" s="291"/>
+      <c r="F7" s="291"/>
+      <c r="G7" s="291"/>
+      <c r="H7" s="292"/>
+      <c r="I7" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>424</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>414</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>425</v>
+      </c>
+      <c r="N7" s="41" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="14.25" thickTop="1">
+      <c r="B8" s="333" t="s">
+        <v>408</v>
+      </c>
+      <c r="C8" s="293" t="s">
+        <v>331</v>
+      </c>
+      <c r="D8" s="82" t="s">
+        <v>377</v>
+      </c>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="146" t="s">
+        <v>378</v>
+      </c>
+      <c r="J8" s="146" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="146" t="s">
+        <v>324</v>
+      </c>
+      <c r="L8" s="202"/>
+      <c r="M8" s="146" t="s">
+        <v>331</v>
+      </c>
+      <c r="N8" s="147" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="333"/>
+      <c r="C9" s="293"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="89" t="s">
+        <v>342</v>
+      </c>
+      <c r="F9" s="89"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="146" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="146" t="s">
+        <v>324</v>
+      </c>
+      <c r="K9" s="146" t="s">
+        <v>347</v>
+      </c>
+      <c r="L9" s="180"/>
+      <c r="M9" s="146" t="s">
+        <v>447</v>
+      </c>
+      <c r="N9" s="147" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="40.5">
+      <c r="B10" s="333"/>
+      <c r="C10" s="293"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="88" t="s">
+        <v>380</v>
+      </c>
+      <c r="F10" s="88"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="146" t="s">
+        <v>333</v>
+      </c>
+      <c r="J10" s="146" t="s">
+        <v>340</v>
+      </c>
+      <c r="K10" s="146" t="s">
+        <v>381</v>
+      </c>
+      <c r="L10" s="180"/>
+      <c r="M10" s="146" t="s">
+        <v>448</v>
+      </c>
+      <c r="N10" s="147" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="40.5">
+      <c r="B11" s="333"/>
+      <c r="C11" s="293"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="90" t="s">
+        <v>383</v>
+      </c>
+      <c r="F11" s="90"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="146" t="s">
+        <v>333</v>
+      </c>
+      <c r="J11" s="146" t="s">
+        <v>340</v>
+      </c>
+      <c r="K11" s="146" t="s">
+        <v>381</v>
+      </c>
+      <c r="L11" s="180"/>
+      <c r="M11" s="146" t="s">
+        <v>471</v>
+      </c>
+      <c r="N11" s="147" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="333"/>
+      <c r="C12" s="293"/>
+      <c r="D12" s="146"/>
+      <c r="E12" s="93" t="s">
+        <v>385</v>
+      </c>
+      <c r="F12" s="88"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="187"/>
+      <c r="I12" s="132" t="s">
+        <v>386</v>
+      </c>
+      <c r="J12" s="132" t="s">
+        <v>340</v>
+      </c>
+      <c r="K12" s="146" t="s">
+        <v>324</v>
+      </c>
+      <c r="L12" s="132" t="s">
+        <v>344</v>
+      </c>
+      <c r="M12" s="146" t="s">
+        <v>472</v>
+      </c>
+      <c r="N12" s="147" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" s="319" t="s">
+        <v>409</v>
+      </c>
+      <c r="C13" s="92">
+        <v>200</v>
+      </c>
+      <c r="D13" s="93" t="s">
+        <v>331</v>
+      </c>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="146" t="s">
+        <v>379</v>
+      </c>
+      <c r="J13" s="146" t="s">
+        <v>331</v>
+      </c>
+      <c r="K13" s="146" t="s">
+        <v>331</v>
+      </c>
+      <c r="L13" s="146" t="s">
+        <v>350</v>
+      </c>
+      <c r="M13" s="146" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" s="147" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="14.25" thickBot="1">
+      <c r="B14" s="320"/>
+      <c r="C14" s="294" t="s">
+        <v>186</v>
+      </c>
+      <c r="D14" s="295"/>
+      <c r="E14" s="295"/>
+      <c r="F14" s="295"/>
+      <c r="G14" s="295"/>
+      <c r="H14" s="295"/>
+      <c r="I14" s="295"/>
+      <c r="J14" s="295"/>
+      <c r="K14" s="295"/>
+      <c r="L14" s="295"/>
+      <c r="M14" s="295"/>
+      <c r="N14" s="296"/>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="C16" s="158" t="s">
+        <v>188</v>
+      </c>
+      <c r="I16" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C14:N14"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:N5"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -43360,71 +44795,71 @@
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="2:15">
-      <c r="B2" s="188" t="s">
+      <c r="B2" s="232" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="188"/>
-      <c r="I2" s="188"/>
-      <c r="J2" s="188"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="232"/>
+      <c r="H2" s="232"/>
+      <c r="I2" s="232"/>
+      <c r="J2" s="232"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="188" t="s">
+      <c r="B3" s="232" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="188"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="188"/>
-      <c r="F3" s="188"/>
-      <c r="G3" s="188"/>
-      <c r="H3" s="188"/>
-      <c r="I3" s="188"/>
-      <c r="J3" s="188"/>
+      <c r="C3" s="232"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="232"/>
+      <c r="F3" s="232"/>
+      <c r="G3" s="232"/>
+      <c r="H3" s="232"/>
+      <c r="I3" s="232"/>
+      <c r="J3" s="232"/>
     </row>
     <row r="4" spans="2:15">
-      <c r="B4" s="188" t="s">
+      <c r="B4" s="232" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="188"/>
-      <c r="D4" s="188"/>
-      <c r="E4" s="188"/>
-      <c r="F4" s="188"/>
-      <c r="G4" s="188"/>
-      <c r="H4" s="188"/>
-      <c r="I4" s="188"/>
-      <c r="J4" s="188"/>
+      <c r="C4" s="232"/>
+      <c r="D4" s="232"/>
+      <c r="E4" s="232"/>
+      <c r="F4" s="232"/>
+      <c r="G4" s="232"/>
+      <c r="H4" s="232"/>
+      <c r="I4" s="232"/>
+      <c r="J4" s="232"/>
     </row>
     <row r="5" spans="2:15" ht="14.25" thickBot="1"/>
     <row r="6" spans="2:15" s="18" customFormat="1">
-      <c r="B6" s="200" t="s">
+      <c r="B6" s="244" t="s">
         <v>152</v>
       </c>
-      <c r="C6" s="189" t="s">
+      <c r="C6" s="233" t="s">
         <v>153</v>
       </c>
-      <c r="D6" s="190"/>
-      <c r="E6" s="197" t="s">
+      <c r="D6" s="234"/>
+      <c r="E6" s="241" t="s">
         <v>154</v>
       </c>
-      <c r="F6" s="198"/>
-      <c r="G6" s="198"/>
-      <c r="H6" s="199"/>
-      <c r="I6" s="193" t="s">
+      <c r="F6" s="242"/>
+      <c r="G6" s="242"/>
+      <c r="H6" s="243"/>
+      <c r="I6" s="237" t="s">
         <v>155</v>
       </c>
-      <c r="J6" s="195" t="s">
+      <c r="J6" s="239" t="s">
         <v>156</v>
       </c>
       <c r="O6" s="6"/>
     </row>
     <row r="7" spans="2:15" ht="14.25" thickBot="1">
-      <c r="B7" s="201"/>
-      <c r="C7" s="191"/>
-      <c r="D7" s="192"/>
+      <c r="B7" s="245"/>
+      <c r="C7" s="235"/>
+      <c r="D7" s="236"/>
       <c r="E7" s="20" t="s">
         <v>29</v>
       </c>
@@ -43437,11 +44872,11 @@
       <c r="H7" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="194"/>
-      <c r="J7" s="196"/>
+      <c r="I7" s="238"/>
+      <c r="J7" s="240"/>
     </row>
     <row r="8" spans="2:15" ht="14.25" thickTop="1">
-      <c r="B8" s="202" t="s">
+      <c r="B8" s="246" t="s">
         <v>158</v>
       </c>
       <c r="C8" s="17">
@@ -43470,7 +44905,7 @@
       </c>
     </row>
     <row r="9" spans="2:15" s="18" customFormat="1">
-      <c r="B9" s="186"/>
+      <c r="B9" s="230"/>
       <c r="C9" s="16">
         <v>201</v>
       </c>
@@ -43498,7 +44933,7 @@
       <c r="O9" s="6"/>
     </row>
     <row r="10" spans="2:15">
-      <c r="B10" s="186"/>
+      <c r="B10" s="230"/>
       <c r="C10" s="16">
         <v>202</v>
       </c>
@@ -43525,7 +44960,7 @@
       </c>
     </row>
     <row r="11" spans="2:15" s="18" customFormat="1">
-      <c r="B11" s="203"/>
+      <c r="B11" s="247"/>
       <c r="C11" s="16">
         <v>204</v>
       </c>
@@ -43553,7 +44988,7 @@
       <c r="O11" s="6"/>
     </row>
     <row r="12" spans="2:15" ht="135">
-      <c r="B12" s="185" t="s">
+      <c r="B12" s="229" t="s">
         <v>159</v>
       </c>
       <c r="C12" s="19">
@@ -43582,7 +45017,7 @@
       </c>
     </row>
     <row r="13" spans="2:15">
-      <c r="B13" s="186"/>
+      <c r="B13" s="230"/>
       <c r="C13" s="19">
         <v>404</v>
       </c>
@@ -43609,7 +45044,7 @@
       </c>
     </row>
     <row r="14" spans="2:15">
-      <c r="B14" s="186"/>
+      <c r="B14" s="230"/>
       <c r="C14" s="19">
         <v>409</v>
       </c>
@@ -43636,7 +45071,7 @@
       </c>
     </row>
     <row r="15" spans="2:15" ht="27.75" thickBot="1">
-      <c r="B15" s="187"/>
+      <c r="B15" s="231"/>
       <c r="C15" s="22">
         <v>500</v>
       </c>
@@ -43677,7 +45112,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="80" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="79" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -43710,53 +45145,53 @@
   <sheetData>
     <row r="1" spans="2:14" ht="14.25" thickBot="1"/>
     <row r="2" spans="2:14">
-      <c r="B2" s="204" t="s">
+      <c r="B2" s="275" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="205"/>
-      <c r="D2" s="206" t="str">
+      <c r="C2" s="276"/>
+      <c r="D2" s="277" t="str">
         <f>'notification API list'!$G$4</f>
         <v>operation result</v>
       </c>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="I2" s="207"/>
+      <c r="E2" s="277"/>
+      <c r="F2" s="277"/>
+      <c r="G2" s="277"/>
+      <c r="H2" s="277"/>
+      <c r="I2" s="278"/>
     </row>
     <row r="3" spans="2:14" ht="14.25" thickBot="1">
-      <c r="B3" s="208" t="s">
+      <c r="B3" s="279" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="209"/>
-      <c r="D3" s="210" t="str">
+      <c r="C3" s="280"/>
+      <c r="D3" s="281" t="str">
         <f>'notification API list'!$I$4</f>
         <v>PUT</v>
       </c>
-      <c r="E3" s="210"/>
-      <c r="F3" s="210"/>
-      <c r="G3" s="210"/>
-      <c r="H3" s="210"/>
-      <c r="I3" s="211"/>
+      <c r="E3" s="281"/>
+      <c r="F3" s="281"/>
+      <c r="G3" s="281"/>
+      <c r="H3" s="281"/>
+      <c r="I3" s="282"/>
     </row>
     <row r="4" spans="2:14" ht="14.25" thickBot="1"/>
     <row r="5" spans="2:14" s="27" customFormat="1" ht="14.25" thickBot="1">
-      <c r="D5" s="212" t="s">
+      <c r="D5" s="283" t="s">
         <v>170</v>
       </c>
-      <c r="E5" s="213"/>
-      <c r="F5" s="213"/>
-      <c r="G5" s="213"/>
-      <c r="H5" s="214"/>
-      <c r="I5" s="215" t="s">
+      <c r="E5" s="265"/>
+      <c r="F5" s="265"/>
+      <c r="G5" s="265"/>
+      <c r="H5" s="266"/>
+      <c r="I5" s="264" t="s">
         <v>171</v>
       </c>
-      <c r="J5" s="214"/>
-      <c r="K5" s="220" t="s">
+      <c r="J5" s="266"/>
+      <c r="K5" s="252" t="s">
         <v>173</v>
       </c>
-      <c r="L5" s="221"/>
-      <c r="M5" s="222"/>
+      <c r="L5" s="253"/>
+      <c r="M5" s="254"/>
       <c r="N5" s="25" t="s">
         <v>175</v>
       </c>
@@ -43764,22 +45199,22 @@
     <row r="6" spans="2:14" ht="15" thickTop="1" thickBot="1">
       <c r="B6" s="63"/>
       <c r="C6" s="63"/>
-      <c r="D6" s="223" t="s">
+      <c r="D6" s="255" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="224"/>
-      <c r="F6" s="224"/>
-      <c r="G6" s="224"/>
-      <c r="H6" s="225"/>
-      <c r="I6" s="226" t="s">
+      <c r="E6" s="256"/>
+      <c r="F6" s="256"/>
+      <c r="G6" s="256"/>
+      <c r="H6" s="257"/>
+      <c r="I6" s="258" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="227"/>
-      <c r="K6" s="237" t="s">
+      <c r="J6" s="259"/>
+      <c r="K6" s="272" t="s">
         <v>167</v>
       </c>
-      <c r="L6" s="238"/>
-      <c r="M6" s="239"/>
+      <c r="L6" s="273"/>
+      <c r="M6" s="274"/>
       <c r="N6" s="31" t="s">
         <v>26</v>
       </c>
@@ -43800,24 +45235,24 @@
       <c r="N7" s="63"/>
     </row>
     <row r="8" spans="2:14" ht="14.25" thickBot="1">
-      <c r="B8" s="228" t="s">
+      <c r="B8" s="260" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="229"/>
-      <c r="D8" s="230" t="str">
+      <c r="C8" s="261"/>
+      <c r="D8" s="262" t="str">
         <f>'notification API list'!J4</f>
         <v>/v1/operations/{operation_id}</v>
       </c>
-      <c r="E8" s="230"/>
-      <c r="F8" s="230"/>
-      <c r="G8" s="230"/>
-      <c r="H8" s="230"/>
-      <c r="I8" s="230"/>
-      <c r="J8" s="230"/>
-      <c r="K8" s="230"/>
-      <c r="L8" s="230"/>
-      <c r="M8" s="230"/>
-      <c r="N8" s="231"/>
+      <c r="E8" s="262"/>
+      <c r="F8" s="262"/>
+      <c r="G8" s="262"/>
+      <c r="H8" s="262"/>
+      <c r="I8" s="262"/>
+      <c r="J8" s="262"/>
+      <c r="K8" s="262"/>
+      <c r="L8" s="262"/>
+      <c r="M8" s="262"/>
+      <c r="N8" s="263"/>
     </row>
     <row r="9" spans="2:14" ht="14.25" thickBot="1">
       <c r="B9" s="63"/>
@@ -43841,13 +45276,13 @@
       <c r="C10" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="D10" s="215" t="s">
+      <c r="D10" s="264" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="213"/>
-      <c r="F10" s="213"/>
-      <c r="G10" s="213"/>
-      <c r="H10" s="214"/>
+      <c r="E10" s="265"/>
+      <c r="F10" s="265"/>
+      <c r="G10" s="265"/>
+      <c r="H10" s="266"/>
       <c r="I10" s="40" t="s">
         <v>172</v>
       </c>
@@ -43868,10 +45303,10 @@
       </c>
     </row>
     <row r="11" spans="2:14" ht="14.25" thickTop="1">
-      <c r="B11" s="216" t="s">
+      <c r="B11" s="248" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="235" t="s">
+      <c r="C11" s="270" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="66" t="s">
@@ -43891,16 +45326,16 @@
         <v>42</v>
       </c>
       <c r="L11" s="68"/>
-      <c r="M11" s="137" t="s">
+      <c r="M11" s="126" t="s">
         <v>190</v>
       </c>
-      <c r="N11" s="140" t="s">
+      <c r="N11" s="129" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="12" spans="2:14">
-      <c r="B12" s="217"/>
-      <c r="C12" s="236"/>
+      <c r="B12" s="249"/>
+      <c r="C12" s="271"/>
       <c r="D12" s="69" t="s">
         <v>11</v>
       </c>
@@ -43918,16 +45353,16 @@
         <v>42</v>
       </c>
       <c r="L12" s="70"/>
-      <c r="M12" s="137" t="s">
+      <c r="M12" s="126" t="s">
         <v>191</v>
       </c>
-      <c r="N12" s="140" t="s">
+      <c r="N12" s="129" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="40.5">
-      <c r="B13" s="217"/>
-      <c r="C13" s="236"/>
+      <c r="B13" s="249"/>
+      <c r="C13" s="271"/>
       <c r="D13" s="69" t="s">
         <v>12</v>
       </c>
@@ -43945,16 +45380,16 @@
         <v>42</v>
       </c>
       <c r="L13" s="70"/>
-      <c r="M13" s="137" t="s">
+      <c r="M13" s="126" t="s">
         <v>192</v>
       </c>
-      <c r="N13" s="141" t="s">
+      <c r="N13" s="130" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="67.5">
-      <c r="B14" s="217"/>
-      <c r="C14" s="236"/>
+      <c r="B14" s="249"/>
+      <c r="C14" s="271"/>
       <c r="D14" s="69" t="s">
         <v>13</v>
       </c>
@@ -43972,16 +45407,16 @@
         <v>42</v>
       </c>
       <c r="L14" s="70"/>
-      <c r="M14" s="137" t="s">
+      <c r="M14" s="126" t="s">
         <v>193</v>
       </c>
-      <c r="N14" s="141" t="s">
+      <c r="N14" s="130" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="27">
-      <c r="B15" s="217"/>
-      <c r="C15" s="236"/>
+      <c r="B15" s="249"/>
+      <c r="C15" s="271"/>
       <c r="D15" s="69" t="s">
         <v>14</v>
       </c>
@@ -43999,16 +45434,16 @@
         <v>42</v>
       </c>
       <c r="L15" s="70"/>
-      <c r="M15" s="137" t="s">
+      <c r="M15" s="126" t="s">
         <v>194</v>
       </c>
-      <c r="N15" s="141" t="s">
+      <c r="N15" s="130" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="16" spans="2:14">
-      <c r="B16" s="217"/>
-      <c r="C16" s="236"/>
+      <c r="B16" s="249"/>
+      <c r="C16" s="271"/>
       <c r="D16" s="44" t="s">
         <v>15</v>
       </c>
@@ -44026,16 +45461,16 @@
         <v>42</v>
       </c>
       <c r="L16" s="70"/>
-      <c r="M16" s="137" t="s">
+      <c r="M16" s="126" t="s">
         <v>195</v>
       </c>
-      <c r="N16" s="141" t="s">
+      <c r="N16" s="130" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="17" spans="2:14">
-      <c r="B17" s="217"/>
-      <c r="C17" s="236"/>
+      <c r="B17" s="249"/>
+      <c r="C17" s="271"/>
       <c r="D17" s="43"/>
       <c r="E17" s="36" t="s">
         <v>8</v>
@@ -44053,16 +45488,16 @@
         <v>42</v>
       </c>
       <c r="L17" s="70"/>
-      <c r="M17" s="137" t="s">
+      <c r="M17" s="126" t="s">
         <v>196</v>
       </c>
-      <c r="N17" s="141" t="s">
+      <c r="N17" s="130" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="67.5">
-      <c r="B18" s="217"/>
-      <c r="C18" s="236"/>
+      <c r="B18" s="249"/>
+      <c r="C18" s="271"/>
       <c r="D18" s="43"/>
       <c r="E18" s="36" t="s">
         <v>9</v>
@@ -44080,16 +45515,16 @@
         <v>42</v>
       </c>
       <c r="L18" s="70"/>
-      <c r="M18" s="137" t="s">
+      <c r="M18" s="126" t="s">
         <v>197</v>
       </c>
-      <c r="N18" s="141" t="s">
+      <c r="N18" s="130" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="54">
-      <c r="B19" s="217"/>
-      <c r="C19" s="236"/>
+      <c r="B19" s="249"/>
+      <c r="C19" s="271"/>
       <c r="D19" s="42"/>
       <c r="E19" s="36" t="s">
         <v>16</v>
@@ -44107,16 +45542,16 @@
         <v>42</v>
       </c>
       <c r="L19" s="70"/>
-      <c r="M19" s="137" t="s">
+      <c r="M19" s="126" t="s">
         <v>198</v>
       </c>
-      <c r="N19" s="141" t="s">
+      <c r="N19" s="130" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="20" spans="2:14">
-      <c r="B20" s="217"/>
-      <c r="C20" s="236"/>
+      <c r="B20" s="249"/>
+      <c r="C20" s="271"/>
       <c r="D20" s="44" t="s">
         <v>17</v>
       </c>
@@ -44134,16 +45569,16 @@
         <v>42</v>
       </c>
       <c r="L20" s="70"/>
-      <c r="M20" s="137" t="s">
+      <c r="M20" s="126" t="s">
         <v>199</v>
       </c>
-      <c r="N20" s="141" t="s">
+      <c r="N20" s="130" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="40.5">
-      <c r="B21" s="217"/>
-      <c r="C21" s="236"/>
+      <c r="B21" s="249"/>
+      <c r="C21" s="271"/>
       <c r="D21" s="43"/>
       <c r="E21" s="36" t="s">
         <v>28</v>
@@ -44161,16 +45596,16 @@
         <v>42</v>
       </c>
       <c r="L21" s="70"/>
-      <c r="M21" s="137" t="s">
+      <c r="M21" s="126" t="s">
         <v>200</v>
       </c>
-      <c r="N21" s="141" t="s">
+      <c r="N21" s="130" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="22" spans="2:14" s="35" customFormat="1" ht="162">
-      <c r="B22" s="217"/>
-      <c r="C22" s="236"/>
+      <c r="B22" s="249"/>
+      <c r="C22" s="271"/>
       <c r="D22" s="42"/>
       <c r="E22" s="71" t="s">
         <v>16</v>
@@ -44188,16 +45623,16 @@
         <v>41</v>
       </c>
       <c r="L22" s="57"/>
-      <c r="M22" s="138" t="s">
+      <c r="M22" s="127" t="s">
         <v>201</v>
       </c>
-      <c r="N22" s="142" t="s">
+      <c r="N22" s="131" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="23" spans="2:14" s="35" customFormat="1" ht="27">
-      <c r="B23" s="217"/>
-      <c r="C23" s="236"/>
+      <c r="B23" s="249"/>
+      <c r="C23" s="271"/>
       <c r="D23" s="49" t="s">
         <v>84</v>
       </c>
@@ -44217,16 +45652,16 @@
       <c r="L23" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="M23" s="161" t="s">
+      <c r="M23" s="150" t="s">
         <v>242</v>
       </c>
-      <c r="N23" s="162" t="s">
+      <c r="N23" s="151" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="24" spans="2:14" s="35" customFormat="1">
-      <c r="B24" s="217"/>
-      <c r="C24" s="236"/>
+      <c r="B24" s="249"/>
+      <c r="C24" s="271"/>
       <c r="D24" s="43"/>
       <c r="E24" s="47" t="s">
         <v>70</v>
@@ -44247,13 +45682,13 @@
       <c r="M24" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="N24" s="163" t="s">
+      <c r="N24" s="152" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="25" spans="2:14" s="35" customFormat="1">
-      <c r="B25" s="217"/>
-      <c r="C25" s="236"/>
+      <c r="B25" s="249"/>
+      <c r="C25" s="271"/>
       <c r="D25" s="43"/>
       <c r="E25" s="44" t="s">
         <v>87</v>
@@ -44274,13 +45709,13 @@
       <c r="M25" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="N25" s="164" t="s">
+      <c r="N25" s="153" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="26" spans="2:14" s="35" customFormat="1">
-      <c r="B26" s="217"/>
-      <c r="C26" s="236"/>
+      <c r="B26" s="249"/>
+      <c r="C26" s="271"/>
       <c r="D26" s="43"/>
       <c r="E26" s="43"/>
       <c r="F26" s="36" t="s">
@@ -44301,13 +45736,13 @@
       <c r="M26" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="N26" s="164" t="s">
+      <c r="N26" s="153" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="27" spans="2:14" s="35" customFormat="1" ht="81">
-      <c r="B27" s="217"/>
-      <c r="C27" s="236"/>
+      <c r="B27" s="249"/>
+      <c r="C27" s="271"/>
       <c r="D27" s="43"/>
       <c r="E27" s="43"/>
       <c r="F27" s="36" t="s">
@@ -44333,8 +45768,8 @@
       </c>
     </row>
     <row r="28" spans="2:14" s="35" customFormat="1" ht="81">
-      <c r="B28" s="217"/>
-      <c r="C28" s="236"/>
+      <c r="B28" s="249"/>
+      <c r="C28" s="271"/>
       <c r="D28" s="43"/>
       <c r="E28" s="42"/>
       <c r="F28" s="36" t="s">
@@ -44360,8 +45795,8 @@
       </c>
     </row>
     <row r="29" spans="2:14" s="35" customFormat="1">
-      <c r="B29" s="217"/>
-      <c r="C29" s="236"/>
+      <c r="B29" s="249"/>
+      <c r="C29" s="271"/>
       <c r="D29" s="43"/>
       <c r="E29" s="44" t="s">
         <v>88</v>
@@ -44382,13 +45817,13 @@
       <c r="M29" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="N29" s="163" t="s">
+      <c r="N29" s="152" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="30" spans="2:14" s="35" customFormat="1">
-      <c r="B30" s="217"/>
-      <c r="C30" s="236"/>
+      <c r="B30" s="249"/>
+      <c r="C30" s="271"/>
       <c r="D30" s="43"/>
       <c r="E30" s="43"/>
       <c r="F30" s="47" t="s">
@@ -44409,11 +45844,11 @@
       <c r="M30" s="50" t="s">
         <v>252</v>
       </c>
-      <c r="N30" s="163"/>
+      <c r="N30" s="152"/>
     </row>
     <row r="31" spans="2:14" s="35" customFormat="1" ht="27">
-      <c r="B31" s="217"/>
-      <c r="C31" s="236"/>
+      <c r="B31" s="249"/>
+      <c r="C31" s="271"/>
       <c r="D31" s="43"/>
       <c r="E31" s="42"/>
       <c r="F31" s="47" t="s">
@@ -44431,16 +45866,16 @@
         <v>65</v>
       </c>
       <c r="L31" s="57"/>
-      <c r="M31" s="165" t="s">
+      <c r="M31" s="154" t="s">
         <v>253</v>
       </c>
-      <c r="N31" s="162" t="s">
+      <c r="N31" s="151" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="32" spans="2:14" s="35" customFormat="1">
-      <c r="B32" s="217"/>
-      <c r="C32" s="236"/>
+      <c r="B32" s="249"/>
+      <c r="C32" s="271"/>
       <c r="D32" s="58" t="s">
         <v>90</v>
       </c>
@@ -44461,13 +45896,13 @@
       <c r="M32" s="42" t="s">
         <v>255</v>
       </c>
-      <c r="N32" s="162" t="s">
+      <c r="N32" s="151" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="33" spans="2:14" s="35" customFormat="1" ht="40.5">
-      <c r="B33" s="217"/>
-      <c r="C33" s="236"/>
+      <c r="B33" s="249"/>
+      <c r="C33" s="271"/>
       <c r="D33" s="43"/>
       <c r="E33" s="60" t="s">
         <v>91</v>
@@ -44488,13 +45923,13 @@
       <c r="M33" s="43" t="s">
         <v>257</v>
       </c>
-      <c r="N33" s="166" t="s">
+      <c r="N33" s="155" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="34" spans="2:14" s="35" customFormat="1">
-      <c r="B34" s="217"/>
-      <c r="C34" s="236"/>
+      <c r="B34" s="249"/>
+      <c r="C34" s="271"/>
       <c r="D34" s="43"/>
       <c r="E34" s="56" t="s">
         <v>92</v>
@@ -44515,13 +45950,13 @@
       <c r="M34" s="53" t="s">
         <v>259</v>
       </c>
-      <c r="N34" s="162" t="s">
+      <c r="N34" s="151" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="35" spans="2:14" s="35" customFormat="1" ht="27">
-      <c r="B35" s="217"/>
-      <c r="C35" s="236"/>
+      <c r="B35" s="249"/>
+      <c r="C35" s="271"/>
       <c r="D35" s="43"/>
       <c r="E35" s="51" t="s">
         <v>84</v>
@@ -44541,16 +45976,16 @@
       <c r="L35" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="M35" s="167" t="s">
+      <c r="M35" s="156" t="s">
         <v>260</v>
       </c>
-      <c r="N35" s="163" t="s">
+      <c r="N35" s="152" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="36" spans="2:14" s="35" customFormat="1">
-      <c r="B36" s="217"/>
-      <c r="C36" s="236"/>
+      <c r="B36" s="249"/>
+      <c r="C36" s="271"/>
       <c r="D36" s="43"/>
       <c r="E36" s="43"/>
       <c r="F36" s="47" t="s">
@@ -44571,13 +46006,13 @@
       <c r="M36" s="50" t="s">
         <v>262</v>
       </c>
-      <c r="N36" s="163" t="s">
+      <c r="N36" s="152" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="37" spans="2:14" s="35" customFormat="1">
-      <c r="B37" s="217"/>
-      <c r="C37" s="236"/>
+      <c r="B37" s="249"/>
+      <c r="C37" s="271"/>
       <c r="D37" s="43"/>
       <c r="E37" s="43"/>
       <c r="F37" s="44" t="s">
@@ -44598,13 +46033,13 @@
       <c r="M37" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="N37" s="164" t="s">
+      <c r="N37" s="153" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="38" spans="2:14" s="35" customFormat="1">
-      <c r="B38" s="217"/>
-      <c r="C38" s="236"/>
+      <c r="B38" s="249"/>
+      <c r="C38" s="271"/>
       <c r="D38" s="43"/>
       <c r="E38" s="43"/>
       <c r="F38" s="43"/>
@@ -44625,13 +46060,13 @@
       <c r="M38" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="N38" s="164" t="s">
+      <c r="N38" s="153" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="39" spans="2:14" s="35" customFormat="1" ht="81">
-      <c r="B39" s="217"/>
-      <c r="C39" s="236"/>
+      <c r="B39" s="249"/>
+      <c r="C39" s="271"/>
       <c r="D39" s="43"/>
       <c r="E39" s="43"/>
       <c r="F39" s="43"/>
@@ -44652,13 +46087,13 @@
       <c r="M39" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="N39" s="164" t="s">
+      <c r="N39" s="153" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="40" spans="2:14" s="35" customFormat="1" ht="81">
-      <c r="B40" s="217"/>
-      <c r="C40" s="236"/>
+      <c r="B40" s="249"/>
+      <c r="C40" s="271"/>
       <c r="D40" s="43"/>
       <c r="E40" s="43"/>
       <c r="F40" s="42"/>
@@ -44684,8 +46119,8 @@
       </c>
     </row>
     <row r="41" spans="2:14" s="35" customFormat="1">
-      <c r="B41" s="217"/>
-      <c r="C41" s="236"/>
+      <c r="B41" s="249"/>
+      <c r="C41" s="271"/>
       <c r="D41" s="43"/>
       <c r="E41" s="43"/>
       <c r="F41" s="44" t="s">
@@ -44706,13 +46141,13 @@
       <c r="M41" s="50" t="s">
         <v>263</v>
       </c>
-      <c r="N41" s="163" t="s">
+      <c r="N41" s="152" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="42" spans="2:14" s="35" customFormat="1">
-      <c r="B42" s="217"/>
-      <c r="C42" s="236"/>
+      <c r="B42" s="249"/>
+      <c r="C42" s="271"/>
       <c r="D42" s="43"/>
       <c r="E42" s="43"/>
       <c r="F42" s="43"/>
@@ -44730,14 +46165,14 @@
         <v>65</v>
       </c>
       <c r="L42" s="57"/>
-      <c r="M42" s="168" t="s">
+      <c r="M42" s="157" t="s">
         <v>252</v>
       </c>
-      <c r="N42" s="163"/>
+      <c r="N42" s="152"/>
     </row>
     <row r="43" spans="2:14" s="35" customFormat="1" ht="27">
-      <c r="B43" s="217"/>
-      <c r="C43" s="236"/>
+      <c r="B43" s="249"/>
+      <c r="C43" s="271"/>
       <c r="D43" s="42"/>
       <c r="E43" s="42"/>
       <c r="F43" s="42"/>
@@ -44755,15 +46190,15 @@
         <v>65</v>
       </c>
       <c r="L43" s="57"/>
-      <c r="M43" s="165" t="s">
+      <c r="M43" s="154" t="s">
         <v>253</v>
       </c>
-      <c r="N43" s="162" t="s">
+      <c r="N43" s="151" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="44" spans="2:14">
-      <c r="B44" s="218" t="s">
+      <c r="B44" s="250" t="s">
         <v>88</v>
       </c>
       <c r="C44" s="32">
@@ -44796,21 +46231,21 @@
       </c>
     </row>
     <row r="45" spans="2:14" ht="14.25" thickBot="1">
-      <c r="B45" s="219"/>
-      <c r="C45" s="232" t="s">
+      <c r="B45" s="251"/>
+      <c r="C45" s="267" t="s">
         <v>186</v>
       </c>
-      <c r="D45" s="233"/>
-      <c r="E45" s="233"/>
-      <c r="F45" s="233"/>
-      <c r="G45" s="233"/>
-      <c r="H45" s="233"/>
-      <c r="I45" s="233"/>
-      <c r="J45" s="233"/>
-      <c r="K45" s="233"/>
-      <c r="L45" s="233"/>
-      <c r="M45" s="233"/>
-      <c r="N45" s="234"/>
+      <c r="D45" s="268"/>
+      <c r="E45" s="268"/>
+      <c r="F45" s="268"/>
+      <c r="G45" s="268"/>
+      <c r="H45" s="268"/>
+      <c r="I45" s="268"/>
+      <c r="J45" s="268"/>
+      <c r="K45" s="268"/>
+      <c r="L45" s="268"/>
+      <c r="M45" s="268"/>
+      <c r="N45" s="269"/>
     </row>
     <row r="47" spans="2:14">
       <c r="C47" s="26" t="s">
@@ -44819,6 +46254,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
     <mergeCell ref="B11:B43"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="K5:M5"/>
@@ -44830,16 +46271,10 @@
     <mergeCell ref="C45:N45"/>
     <mergeCell ref="C11:C43"/>
     <mergeCell ref="K6:M6"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="85" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="83" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="9" max="14" man="1"/>
   </rowBreaks>
@@ -44875,19 +46310,19 @@
   <sheetData>
     <row r="1" spans="2:14" ht="14.25" thickBot="1"/>
     <row r="2" spans="2:14">
-      <c r="B2" s="204" t="s">
+      <c r="B2" s="275" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="205"/>
-      <c r="D2" s="247" t="str">
+      <c r="C2" s="276"/>
+      <c r="D2" s="284" t="str">
         <f>'notification API list'!$G$5</f>
         <v>status notification</v>
       </c>
-      <c r="E2" s="247"/>
-      <c r="F2" s="247"/>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247"/>
-      <c r="I2" s="248"/>
+      <c r="E2" s="284"/>
+      <c r="F2" s="284"/>
+      <c r="G2" s="284"/>
+      <c r="H2" s="284"/>
+      <c r="I2" s="285"/>
       <c r="J2" s="81"/>
       <c r="K2" s="81"/>
       <c r="L2" s="81"/>
@@ -44895,19 +46330,19 @@
       <c r="N2" s="81"/>
     </row>
     <row r="3" spans="2:14" ht="14.25" thickBot="1">
-      <c r="B3" s="208" t="s">
+      <c r="B3" s="279" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="209"/>
-      <c r="D3" s="249" t="str">
+      <c r="C3" s="280"/>
+      <c r="D3" s="286" t="str">
         <f>'notification API list'!$I$5</f>
         <v>PUT</v>
       </c>
-      <c r="E3" s="249"/>
-      <c r="F3" s="249"/>
-      <c r="G3" s="249"/>
-      <c r="H3" s="249"/>
-      <c r="I3" s="250"/>
+      <c r="E3" s="286"/>
+      <c r="F3" s="286"/>
+      <c r="G3" s="286"/>
+      <c r="H3" s="286"/>
+      <c r="I3" s="287"/>
       <c r="J3" s="81"/>
       <c r="K3" s="81"/>
       <c r="L3" s="81"/>
@@ -44930,24 +46365,24 @@
       <c r="N4" s="81"/>
     </row>
     <row r="5" spans="2:14" ht="14.25" thickBot="1">
-      <c r="B5" s="228" t="s">
+      <c r="B5" s="260" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="229"/>
-      <c r="D5" s="251" t="str">
+      <c r="C5" s="261"/>
+      <c r="D5" s="288" t="str">
         <f>'notification API list'!$J$5</f>
         <v>/v1/MSFcontroller/status</v>
       </c>
-      <c r="E5" s="251"/>
-      <c r="F5" s="251"/>
-      <c r="G5" s="251"/>
-      <c r="H5" s="251"/>
-      <c r="I5" s="251"/>
-      <c r="J5" s="251"/>
-      <c r="K5" s="251"/>
-      <c r="L5" s="251"/>
-      <c r="M5" s="251"/>
-      <c r="N5" s="252"/>
+      <c r="E5" s="288"/>
+      <c r="F5" s="288"/>
+      <c r="G5" s="288"/>
+      <c r="H5" s="288"/>
+      <c r="I5" s="288"/>
+      <c r="J5" s="288"/>
+      <c r="K5" s="288"/>
+      <c r="L5" s="288"/>
+      <c r="M5" s="288"/>
+      <c r="N5" s="289"/>
     </row>
     <row r="6" spans="2:14" ht="14.25" thickBot="1">
       <c r="B6" s="12"/>
@@ -44971,13 +46406,13 @@
       <c r="C7" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="D7" s="240" t="s">
+      <c r="D7" s="290" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="241"/>
-      <c r="F7" s="241"/>
-      <c r="G7" s="241"/>
-      <c r="H7" s="242"/>
+      <c r="E7" s="291"/>
+      <c r="F7" s="291"/>
+      <c r="G7" s="291"/>
+      <c r="H7" s="292"/>
       <c r="I7" s="40" t="s">
         <v>172</v>
       </c>
@@ -44998,10 +46433,10 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="14.25" thickTop="1">
-      <c r="B8" s="217" t="s">
+      <c r="B8" s="249" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="243" t="s">
+      <c r="C8" s="293" t="s">
         <v>45</v>
       </c>
       <c r="D8" s="82" t="s">
@@ -45029,8 +46464,8 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="54">
-      <c r="B9" s="217"/>
-      <c r="C9" s="243"/>
+      <c r="B9" s="249"/>
+      <c r="C9" s="293"/>
       <c r="D9" s="87"/>
       <c r="E9" s="88" t="s">
         <v>50</v>
@@ -45051,13 +46486,13 @@
       <c r="M9" s="85" t="s">
         <v>212</v>
       </c>
-      <c r="N9" s="158" t="s">
+      <c r="N9" s="147" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="217"/>
-      <c r="C10" s="243"/>
+      <c r="B10" s="249"/>
+      <c r="C10" s="293"/>
       <c r="D10" s="87"/>
       <c r="E10" s="89" t="s">
         <v>52</v>
@@ -45083,8 +46518,8 @@
       </c>
     </row>
     <row r="11" spans="2:14" ht="54">
-      <c r="B11" s="217"/>
-      <c r="C11" s="243"/>
+      <c r="B11" s="249"/>
+      <c r="C11" s="293"/>
       <c r="D11" s="85"/>
       <c r="E11" s="90" t="s">
         <v>54</v>
@@ -45110,7 +46545,7 @@
       </c>
     </row>
     <row r="12" spans="2:14">
-      <c r="B12" s="218" t="s">
+      <c r="B12" s="250" t="s">
         <v>88</v>
       </c>
       <c r="C12" s="92">
@@ -45143,21 +46578,21 @@
       </c>
     </row>
     <row r="13" spans="2:14" ht="14.25" thickBot="1">
-      <c r="B13" s="219"/>
-      <c r="C13" s="244" t="s">
+      <c r="B13" s="251"/>
+      <c r="C13" s="294" t="s">
         <v>187</v>
       </c>
-      <c r="D13" s="245"/>
-      <c r="E13" s="245"/>
-      <c r="F13" s="245"/>
-      <c r="G13" s="245"/>
-      <c r="H13" s="245"/>
-      <c r="I13" s="245"/>
-      <c r="J13" s="245"/>
-      <c r="K13" s="245"/>
-      <c r="L13" s="245"/>
-      <c r="M13" s="245"/>
-      <c r="N13" s="246"/>
+      <c r="D13" s="295"/>
+      <c r="E13" s="295"/>
+      <c r="F13" s="295"/>
+      <c r="G13" s="295"/>
+      <c r="H13" s="295"/>
+      <c r="I13" s="295"/>
+      <c r="J13" s="295"/>
+      <c r="K13" s="295"/>
+      <c r="L13" s="295"/>
+      <c r="M13" s="295"/>
+      <c r="N13" s="296"/>
     </row>
     <row r="15" spans="2:14">
       <c r="C15" s="27" t="s">
@@ -45167,21 +46602,21 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C13:N13"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:I3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:N5"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C13:N13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="85" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="83" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -45215,59 +46650,59 @@
   <sheetData>
     <row r="1" spans="2:16" ht="14.25" thickBot="1"/>
     <row r="2" spans="2:16">
-      <c r="B2" s="270" t="s">
+      <c r="B2" s="314" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="199"/>
-      <c r="D2" s="247" t="str">
+      <c r="C2" s="243"/>
+      <c r="D2" s="284" t="str">
         <f>'notification API list'!$G$6</f>
         <v>traffic notification</v>
       </c>
-      <c r="E2" s="247"/>
-      <c r="F2" s="247"/>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247"/>
-      <c r="I2" s="248"/>
+      <c r="E2" s="284"/>
+      <c r="F2" s="284"/>
+      <c r="G2" s="284"/>
+      <c r="H2" s="284"/>
+      <c r="I2" s="285"/>
     </row>
     <row r="3" spans="2:16" ht="14.25" thickBot="1">
-      <c r="B3" s="271" t="s">
+      <c r="B3" s="315" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="272"/>
-      <c r="D3" s="249" t="str">
+      <c r="C3" s="316"/>
+      <c r="D3" s="286" t="str">
         <f>'notification API list'!$I$6</f>
         <v>PUT</v>
       </c>
-      <c r="E3" s="249"/>
-      <c r="F3" s="249"/>
-      <c r="G3" s="249"/>
-      <c r="H3" s="249"/>
-      <c r="I3" s="250"/>
+      <c r="E3" s="286"/>
+      <c r="F3" s="286"/>
+      <c r="G3" s="286"/>
+      <c r="H3" s="286"/>
+      <c r="I3" s="287"/>
     </row>
     <row r="4" spans="2:16" ht="14.25" thickBot="1">
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
     </row>
     <row r="5" spans="2:16" ht="14.25" thickBot="1">
-      <c r="B5" s="261" t="s">
+      <c r="B5" s="305" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="262"/>
-      <c r="D5" s="263"/>
-      <c r="E5" s="264" t="str">
+      <c r="C5" s="306"/>
+      <c r="D5" s="307"/>
+      <c r="E5" s="308" t="str">
         <f>'notification API list'!$J$6</f>
         <v>/v1/MSFcontroller/traffic</v>
       </c>
-      <c r="F5" s="265"/>
-      <c r="G5" s="265"/>
-      <c r="H5" s="265"/>
-      <c r="I5" s="265"/>
-      <c r="J5" s="265"/>
-      <c r="K5" s="265"/>
-      <c r="L5" s="265"/>
-      <c r="M5" s="265"/>
-      <c r="N5" s="265"/>
-      <c r="O5" s="266"/>
+      <c r="F5" s="309"/>
+      <c r="G5" s="309"/>
+      <c r="H5" s="309"/>
+      <c r="I5" s="309"/>
+      <c r="J5" s="309"/>
+      <c r="K5" s="309"/>
+      <c r="L5" s="309"/>
+      <c r="M5" s="309"/>
+      <c r="N5" s="309"/>
+      <c r="O5" s="310"/>
       <c r="P5" s="11"/>
     </row>
     <row r="6" spans="2:16" ht="14.25" thickBot="1">
@@ -45281,15 +46716,15 @@
       <c r="C7" s="77" t="s">
         <v>178</v>
       </c>
-      <c r="D7" s="267" t="s">
+      <c r="D7" s="311" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="268"/>
-      <c r="F7" s="268"/>
-      <c r="G7" s="268"/>
-      <c r="H7" s="268"/>
-      <c r="I7" s="268"/>
-      <c r="J7" s="269"/>
+      <c r="E7" s="312"/>
+      <c r="F7" s="312"/>
+      <c r="G7" s="312"/>
+      <c r="H7" s="312"/>
+      <c r="I7" s="312"/>
+      <c r="J7" s="313"/>
       <c r="K7" s="24" t="s">
         <v>172</v>
       </c>
@@ -45310,10 +46745,10 @@
       </c>
     </row>
     <row r="8" spans="2:16" ht="14.25" thickTop="1">
-      <c r="B8" s="258" t="s">
+      <c r="B8" s="302" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="253" t="s">
+      <c r="C8" s="297" t="s">
         <v>96</v>
       </c>
       <c r="D8" s="108" t="s">
@@ -45343,8 +46778,8 @@
       </c>
     </row>
     <row r="9" spans="2:16">
-      <c r="B9" s="259"/>
-      <c r="C9" s="254"/>
+      <c r="B9" s="303"/>
+      <c r="C9" s="298"/>
       <c r="D9" s="102"/>
       <c r="E9" s="82" t="s">
         <v>77</v>
@@ -45374,8 +46809,8 @@
       </c>
     </row>
     <row r="10" spans="2:16" s="97" customFormat="1">
-      <c r="B10" s="259"/>
-      <c r="C10" s="254"/>
+      <c r="B10" s="303"/>
+      <c r="C10" s="298"/>
       <c r="D10" s="87"/>
       <c r="E10" s="87"/>
       <c r="F10" s="93" t="s">
@@ -45403,8 +46838,8 @@
       </c>
     </row>
     <row r="11" spans="2:16">
-      <c r="B11" s="259"/>
-      <c r="C11" s="254"/>
+      <c r="B11" s="303"/>
+      <c r="C11" s="298"/>
       <c r="D11" s="87"/>
       <c r="E11" s="87"/>
       <c r="F11" s="89" t="s">
@@ -45424,7 +46859,7 @@
         <v>41</v>
       </c>
       <c r="N11" s="100"/>
-      <c r="O11" s="152" t="s">
+      <c r="O11" s="141" t="s">
         <v>223</v>
       </c>
       <c r="P11" s="101" t="s">
@@ -45432,8 +46867,8 @@
       </c>
     </row>
     <row r="12" spans="2:16">
-      <c r="B12" s="259"/>
-      <c r="C12" s="254"/>
+      <c r="B12" s="303"/>
+      <c r="C12" s="298"/>
       <c r="D12" s="87"/>
       <c r="E12" s="87"/>
       <c r="F12" s="89" t="s">
@@ -45453,7 +46888,7 @@
         <v>41</v>
       </c>
       <c r="N12" s="100"/>
-      <c r="O12" s="152" t="s">
+      <c r="O12" s="141" t="s">
         <v>224</v>
       </c>
       <c r="P12" s="101" t="s">
@@ -45461,8 +46896,8 @@
       </c>
     </row>
     <row r="13" spans="2:16" ht="40.5">
-      <c r="B13" s="259"/>
-      <c r="C13" s="254"/>
+      <c r="B13" s="303"/>
+      <c r="C13" s="298"/>
       <c r="D13" s="87"/>
       <c r="E13" s="87"/>
       <c r="F13" s="89" t="s">
@@ -45482,16 +46917,16 @@
         <v>41</v>
       </c>
       <c r="N13" s="100"/>
-      <c r="O13" s="153" t="s">
+      <c r="O13" s="142" t="s">
         <v>225</v>
       </c>
-      <c r="P13" s="154" t="s">
+      <c r="P13" s="143" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="14" spans="2:16">
-      <c r="B14" s="259"/>
-      <c r="C14" s="254"/>
+      <c r="B14" s="303"/>
+      <c r="C14" s="298"/>
       <c r="D14" s="85"/>
       <c r="E14" s="85"/>
       <c r="F14" s="89" t="s">
@@ -45519,8 +46954,8 @@
       </c>
     </row>
     <row r="15" spans="2:16">
-      <c r="B15" s="259"/>
-      <c r="C15" s="254"/>
+      <c r="B15" s="303"/>
+      <c r="C15" s="298"/>
       <c r="D15" s="103" t="s">
         <v>80</v>
       </c>
@@ -45540,7 +46975,7 @@
         <v>65</v>
       </c>
       <c r="N15" s="100"/>
-      <c r="O15" s="153" t="s">
+      <c r="O15" s="142" t="s">
         <v>240</v>
       </c>
       <c r="P15" s="101" t="s">
@@ -45548,8 +46983,8 @@
       </c>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="259"/>
-      <c r="C16" s="254"/>
+      <c r="B16" s="303"/>
+      <c r="C16" s="298"/>
       <c r="D16" s="87"/>
       <c r="E16" s="104" t="s">
         <v>100</v>
@@ -45579,8 +47014,8 @@
       </c>
     </row>
     <row r="17" spans="2:16">
-      <c r="B17" s="259"/>
-      <c r="C17" s="254"/>
+      <c r="B17" s="303"/>
+      <c r="C17" s="298"/>
       <c r="D17" s="87"/>
       <c r="E17" s="87"/>
       <c r="F17" s="93" t="s">
@@ -45608,8 +47043,8 @@
       </c>
     </row>
     <row r="18" spans="2:16" ht="40.5">
-      <c r="B18" s="259"/>
-      <c r="C18" s="254"/>
+      <c r="B18" s="303"/>
+      <c r="C18" s="298"/>
       <c r="D18" s="87"/>
       <c r="E18" s="87"/>
       <c r="F18" s="93" t="s">
@@ -45629,16 +47064,16 @@
         <v>41</v>
       </c>
       <c r="N18" s="100"/>
-      <c r="O18" s="155" t="s">
+      <c r="O18" s="144" t="s">
         <v>231</v>
       </c>
-      <c r="P18" s="156" t="s">
+      <c r="P18" s="145" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="40.5">
-      <c r="B19" s="259"/>
-      <c r="C19" s="254"/>
+      <c r="B19" s="303"/>
+      <c r="C19" s="298"/>
       <c r="D19" s="85"/>
       <c r="E19" s="105"/>
       <c r="F19" s="93" t="s">
@@ -45658,16 +47093,16 @@
         <v>65</v>
       </c>
       <c r="N19" s="100"/>
-      <c r="O19" s="157" t="s">
+      <c r="O19" s="146" t="s">
         <v>233</v>
       </c>
-      <c r="P19" s="158" t="s">
+      <c r="P19" s="147" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="20" spans="2:16">
-      <c r="B20" s="259"/>
-      <c r="C20" s="254"/>
+      <c r="B20" s="303"/>
+      <c r="C20" s="298"/>
       <c r="D20" s="103" t="s">
         <v>83</v>
       </c>
@@ -45677,26 +47112,26 @@
       <c r="H20" s="83"/>
       <c r="I20" s="83"/>
       <c r="J20" s="84"/>
-      <c r="K20" s="157" t="s">
+      <c r="K20" s="146" t="s">
         <v>63</v>
       </c>
-      <c r="L20" s="143" t="s">
+      <c r="L20" s="132" t="s">
         <v>41</v>
       </c>
-      <c r="M20" s="157" t="s">
+      <c r="M20" s="146" t="s">
         <v>65</v>
       </c>
       <c r="N20" s="106"/>
-      <c r="O20" s="159" t="s">
+      <c r="O20" s="148" t="s">
         <v>266</v>
       </c>
-      <c r="P20" s="147" t="s">
+      <c r="P20" s="136" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="21" spans="2:16">
-      <c r="B21" s="259"/>
-      <c r="C21" s="254"/>
+      <c r="B21" s="303"/>
+      <c r="C21" s="298"/>
       <c r="D21" s="87"/>
       <c r="E21" s="90" t="s">
         <v>71</v>
@@ -45706,28 +47141,28 @@
       <c r="H21" s="83"/>
       <c r="I21" s="83"/>
       <c r="J21" s="84"/>
-      <c r="K21" s="157" t="s">
+      <c r="K21" s="146" t="s">
         <v>98</v>
       </c>
-      <c r="L21" s="157" t="s">
+      <c r="L21" s="146" t="s">
         <v>65</v>
       </c>
       <c r="M21" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="N21" s="157" t="s">
+      <c r="N21" s="146" t="s">
         <v>65</v>
       </c>
-      <c r="O21" s="159" t="s">
+      <c r="O21" s="148" t="s">
         <v>268</v>
       </c>
-      <c r="P21" s="147" t="s">
+      <c r="P21" s="136" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="22" spans="2:16" s="80" customFormat="1" ht="27">
-      <c r="B22" s="259"/>
-      <c r="C22" s="254"/>
+      <c r="B22" s="303"/>
+      <c r="C22" s="298"/>
       <c r="D22" s="87"/>
       <c r="E22" s="87"/>
       <c r="F22" s="83" t="s">
@@ -45737,26 +47172,26 @@
       <c r="H22" s="83"/>
       <c r="I22" s="83"/>
       <c r="J22" s="84"/>
-      <c r="K22" s="157" t="s">
+      <c r="K22" s="146" t="s">
         <v>106</v>
       </c>
-      <c r="L22" s="157" t="s">
+      <c r="L22" s="146" t="s">
         <v>65</v>
       </c>
       <c r="M22" s="98" t="s">
         <v>41</v>
       </c>
       <c r="N22" s="100"/>
-      <c r="O22" s="159" t="s">
+      <c r="O22" s="148" t="s">
         <v>270</v>
       </c>
-      <c r="P22" s="158" t="s">
+      <c r="P22" s="147" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="23" spans="2:16" s="115" customFormat="1">
-      <c r="B23" s="259"/>
-      <c r="C23" s="254"/>
+      <c r="B23" s="303"/>
+      <c r="C23" s="298"/>
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="83" t="s">
@@ -45766,28 +47201,28 @@
       <c r="H23" s="83"/>
       <c r="I23" s="83"/>
       <c r="J23" s="84"/>
-      <c r="K23" s="157" t="s">
+      <c r="K23" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="L23" s="157" t="s">
+      <c r="L23" s="146" t="s">
         <v>65</v>
       </c>
       <c r="M23" s="98" t="s">
         <v>41</v>
       </c>
       <c r="N23" s="100"/>
-      <c r="O23" s="159" t="s">
+      <c r="O23" s="148" t="s">
         <v>272</v>
       </c>
-      <c r="P23" s="158" t="s">
+      <c r="P23" s="147" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="24" spans="2:16">
-      <c r="B24" s="260"/>
-      <c r="C24" s="255"/>
-      <c r="D24" s="157"/>
-      <c r="E24" s="157"/>
+      <c r="B24" s="304"/>
+      <c r="C24" s="299"/>
+      <c r="D24" s="146"/>
+      <c r="E24" s="146"/>
       <c r="F24" s="83" t="s">
         <v>73</v>
       </c>
@@ -45795,27 +47230,27 @@
       <c r="H24" s="83"/>
       <c r="I24" s="83"/>
       <c r="J24" s="84"/>
-      <c r="K24" s="157" t="s">
+      <c r="K24" s="146" t="s">
         <v>126</v>
       </c>
-      <c r="L24" s="157" t="s">
+      <c r="L24" s="146" t="s">
         <v>65</v>
       </c>
-      <c r="M24" s="143" t="s">
+      <c r="M24" s="132" t="s">
         <v>41</v>
       </c>
-      <c r="N24" s="143" t="s">
+      <c r="N24" s="132" t="s">
         <v>99</v>
       </c>
-      <c r="O24" s="159" t="s">
+      <c r="O24" s="148" t="s">
         <v>273</v>
       </c>
-      <c r="P24" s="158" t="s">
+      <c r="P24" s="147" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="25" spans="2:16">
-      <c r="B25" s="218" t="s">
+      <c r="B25" s="250" t="s">
         <v>88</v>
       </c>
       <c r="C25" s="92">
@@ -45850,23 +47285,23 @@
       </c>
     </row>
     <row r="26" spans="2:16" ht="14.25" thickBot="1">
-      <c r="B26" s="219"/>
-      <c r="C26" s="256" t="s">
+      <c r="B26" s="251"/>
+      <c r="C26" s="300" t="s">
         <v>187</v>
       </c>
-      <c r="D26" s="257"/>
-      <c r="E26" s="257"/>
-      <c r="F26" s="257"/>
-      <c r="G26" s="257"/>
-      <c r="H26" s="257"/>
-      <c r="I26" s="257"/>
-      <c r="J26" s="257"/>
-      <c r="K26" s="257"/>
-      <c r="L26" s="257"/>
-      <c r="M26" s="257"/>
-      <c r="N26" s="257"/>
-      <c r="O26" s="257"/>
-      <c r="P26" s="257"/>
+      <c r="D26" s="301"/>
+      <c r="E26" s="301"/>
+      <c r="F26" s="301"/>
+      <c r="G26" s="301"/>
+      <c r="H26" s="301"/>
+      <c r="I26" s="301"/>
+      <c r="J26" s="301"/>
+      <c r="K26" s="301"/>
+      <c r="L26" s="301"/>
+      <c r="M26" s="301"/>
+      <c r="N26" s="301"/>
+      <c r="O26" s="301"/>
+      <c r="P26" s="301"/>
     </row>
     <row r="27" spans="2:16">
       <c r="B27" s="76"/>
@@ -45915,7 +47350,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="78" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="79" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="6" max="16" man="1"/>
     <brk id="26" max="16" man="1"/>
@@ -45930,8 +47365,8 @@
   </sheetPr>
   <dimension ref="B1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -45954,59 +47389,59 @@
   <sheetData>
     <row r="1" spans="2:16" ht="14.25" thickBot="1"/>
     <row r="2" spans="2:16">
-      <c r="B2" s="270" t="s">
+      <c r="B2" s="314" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="199"/>
-      <c r="D2" s="247" t="str">
+      <c r="C2" s="243"/>
+      <c r="D2" s="284" t="str">
         <f>'notification API list'!$G$7</f>
         <v>failure notification</v>
       </c>
-      <c r="E2" s="247"/>
-      <c r="F2" s="247"/>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247"/>
-      <c r="I2" s="248"/>
+      <c r="E2" s="284"/>
+      <c r="F2" s="284"/>
+      <c r="G2" s="284"/>
+      <c r="H2" s="284"/>
+      <c r="I2" s="285"/>
     </row>
     <row r="3" spans="2:16" ht="14.25" thickBot="1">
-      <c r="B3" s="271" t="s">
+      <c r="B3" s="315" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="272"/>
-      <c r="D3" s="249" t="str">
+      <c r="C3" s="316"/>
+      <c r="D3" s="286" t="str">
         <f>'notification API list'!$I$7</f>
         <v>PUT</v>
       </c>
-      <c r="E3" s="249"/>
-      <c r="F3" s="249"/>
-      <c r="G3" s="249"/>
-      <c r="H3" s="249"/>
-      <c r="I3" s="250"/>
+      <c r="E3" s="286"/>
+      <c r="F3" s="286"/>
+      <c r="G3" s="286"/>
+      <c r="H3" s="286"/>
+      <c r="I3" s="287"/>
     </row>
     <row r="4" spans="2:16" ht="14.25" thickBot="1">
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
     </row>
     <row r="5" spans="2:16" ht="14.25" thickBot="1">
-      <c r="B5" s="261" t="s">
+      <c r="B5" s="305" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="262"/>
-      <c r="D5" s="263"/>
-      <c r="E5" s="264" t="str">
+      <c r="C5" s="306"/>
+      <c r="D5" s="307"/>
+      <c r="E5" s="308" t="str">
         <f>'notification API list'!$J$7</f>
         <v>/v1/MSFcontroller/failure_status</v>
       </c>
-      <c r="F5" s="265"/>
-      <c r="G5" s="265"/>
-      <c r="H5" s="265"/>
-      <c r="I5" s="265"/>
-      <c r="J5" s="265"/>
-      <c r="K5" s="265"/>
-      <c r="L5" s="265"/>
-      <c r="M5" s="265"/>
-      <c r="N5" s="265"/>
-      <c r="O5" s="266"/>
+      <c r="F5" s="309"/>
+      <c r="G5" s="309"/>
+      <c r="H5" s="309"/>
+      <c r="I5" s="309"/>
+      <c r="J5" s="309"/>
+      <c r="K5" s="309"/>
+      <c r="L5" s="309"/>
+      <c r="M5" s="309"/>
+      <c r="N5" s="309"/>
+      <c r="O5" s="310"/>
       <c r="P5" s="11"/>
     </row>
     <row r="6" spans="2:16" ht="14.25" thickBot="1">
@@ -46020,15 +47455,15 @@
       <c r="C7" s="79" t="s">
         <v>178</v>
       </c>
-      <c r="D7" s="267" t="s">
+      <c r="D7" s="311" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="268"/>
-      <c r="F7" s="268"/>
-      <c r="G7" s="268"/>
-      <c r="H7" s="268"/>
-      <c r="I7" s="268"/>
-      <c r="J7" s="269"/>
+      <c r="E7" s="312"/>
+      <c r="F7" s="312"/>
+      <c r="G7" s="312"/>
+      <c r="H7" s="312"/>
+      <c r="I7" s="312"/>
+      <c r="J7" s="313"/>
       <c r="K7" s="24" t="s">
         <v>172</v>
       </c>
@@ -46049,10 +47484,10 @@
       </c>
     </row>
     <row r="8" spans="2:16" ht="14.25" thickTop="1">
-      <c r="B8" s="258" t="s">
+      <c r="B8" s="302" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="253" t="s">
+      <c r="C8" s="297" t="s">
         <v>101</v>
       </c>
       <c r="D8" s="108" t="s">
@@ -46074,7 +47509,7 @@
         <v>95</v>
       </c>
       <c r="N8" s="111"/>
-      <c r="O8" s="143" t="s">
+      <c r="O8" s="132" t="s">
         <v>236</v>
       </c>
       <c r="P8" s="112" t="s">
@@ -46082,8 +47517,8 @@
       </c>
     </row>
     <row r="9" spans="2:16">
-      <c r="B9" s="259"/>
-      <c r="C9" s="254"/>
+      <c r="B9" s="303"/>
+      <c r="C9" s="298"/>
       <c r="D9" s="102"/>
       <c r="E9" s="82" t="s">
         <v>111</v>
@@ -46105,16 +47540,16 @@
       <c r="N9" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="O9" s="139" t="s">
+      <c r="O9" s="128" t="s">
         <v>218</v>
       </c>
-      <c r="P9" s="144" t="s">
+      <c r="P9" s="133" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="10" spans="2:16" s="97" customFormat="1">
-      <c r="B10" s="259"/>
-      <c r="C10" s="254"/>
+      <c r="B10" s="303"/>
+      <c r="C10" s="298"/>
       <c r="D10" s="87"/>
       <c r="E10" s="87"/>
       <c r="F10" s="93" t="s">
@@ -46134,7 +47569,7 @@
         <v>41</v>
       </c>
       <c r="N10" s="100"/>
-      <c r="O10" s="145" t="s">
+      <c r="O10" s="134" t="s">
         <v>219</v>
       </c>
       <c r="P10" s="101" t="s">
@@ -46142,8 +47577,8 @@
       </c>
     </row>
     <row r="11" spans="2:16">
-      <c r="B11" s="259"/>
-      <c r="C11" s="254"/>
+      <c r="B11" s="303"/>
+      <c r="C11" s="298"/>
       <c r="D11" s="102"/>
       <c r="E11" s="87"/>
       <c r="F11" s="83" t="s">
@@ -46163,7 +47598,7 @@
         <v>93</v>
       </c>
       <c r="N11" s="100"/>
-      <c r="O11" s="145" t="s">
+      <c r="O11" s="134" t="s">
         <v>223</v>
       </c>
       <c r="P11" s="101" t="s">
@@ -46171,8 +47606,8 @@
       </c>
     </row>
     <row r="12" spans="2:16">
-      <c r="B12" s="259"/>
-      <c r="C12" s="254"/>
+      <c r="B12" s="303"/>
+      <c r="C12" s="298"/>
       <c r="D12" s="102"/>
       <c r="E12" s="87"/>
       <c r="F12" s="83" t="s">
@@ -46192,7 +47627,7 @@
         <v>93</v>
       </c>
       <c r="N12" s="100"/>
-      <c r="O12" s="145" t="s">
+      <c r="O12" s="134" t="s">
         <v>224</v>
       </c>
       <c r="P12" s="101" t="s">
@@ -46200,8 +47635,8 @@
       </c>
     </row>
     <row r="13" spans="2:16" ht="27">
-      <c r="B13" s="259"/>
-      <c r="C13" s="254"/>
+      <c r="B13" s="303"/>
+      <c r="C13" s="298"/>
       <c r="D13" s="102"/>
       <c r="E13" s="87"/>
       <c r="F13" s="83" t="s">
@@ -46221,7 +47656,7 @@
         <v>93</v>
       </c>
       <c r="N13" s="106"/>
-      <c r="O13" s="139" t="s">
+      <c r="O13" s="128" t="s">
         <v>221</v>
       </c>
       <c r="P13" s="86" t="s">
@@ -46229,8 +47664,8 @@
       </c>
     </row>
     <row r="14" spans="2:16">
-      <c r="B14" s="259"/>
-      <c r="C14" s="254"/>
+      <c r="B14" s="303"/>
+      <c r="C14" s="298"/>
       <c r="D14" s="102"/>
       <c r="E14" s="82" t="s">
         <v>115</v>
@@ -46252,16 +47687,16 @@
       <c r="N14" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="O14" s="146" t="s">
+      <c r="O14" s="135" t="s">
         <v>216</v>
       </c>
-      <c r="P14" s="147" t="s">
+      <c r="P14" s="136" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="15" spans="2:16" s="97" customFormat="1">
-      <c r="B15" s="259"/>
-      <c r="C15" s="254"/>
+      <c r="B15" s="303"/>
+      <c r="C15" s="298"/>
       <c r="D15" s="87"/>
       <c r="E15" s="87"/>
       <c r="F15" s="93" t="s">
@@ -46281,16 +47716,16 @@
         <v>41</v>
       </c>
       <c r="N15" s="100"/>
-      <c r="O15" s="146" t="s">
+      <c r="O15" s="135" t="s">
         <v>219</v>
       </c>
-      <c r="P15" s="147" t="s">
+      <c r="P15" s="136" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="259"/>
-      <c r="C16" s="254"/>
+      <c r="B16" s="303"/>
+      <c r="C16" s="298"/>
       <c r="D16" s="87"/>
       <c r="E16" s="87"/>
       <c r="F16" s="89" t="s">
@@ -46310,16 +47745,16 @@
         <v>93</v>
       </c>
       <c r="N16" s="100"/>
-      <c r="O16" s="146" t="s">
+      <c r="O16" s="135" t="s">
         <v>223</v>
       </c>
-      <c r="P16" s="147" t="s">
+      <c r="P16" s="136" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="17" spans="2:16">
-      <c r="B17" s="259"/>
-      <c r="C17" s="254"/>
+      <c r="B17" s="303"/>
+      <c r="C17" s="298"/>
       <c r="D17" s="87"/>
       <c r="E17" s="87"/>
       <c r="F17" s="89" t="s">
@@ -46339,16 +47774,16 @@
         <v>93</v>
       </c>
       <c r="N17" s="100"/>
-      <c r="O17" s="146" t="s">
+      <c r="O17" s="135" t="s">
         <v>224</v>
       </c>
-      <c r="P17" s="147" t="s">
+      <c r="P17" s="136" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="18" spans="2:16" s="80" customFormat="1" ht="40.5">
-      <c r="B18" s="259"/>
-      <c r="C18" s="254"/>
+      <c r="B18" s="303"/>
+      <c r="C18" s="298"/>
       <c r="D18" s="87"/>
       <c r="E18" s="87"/>
       <c r="F18" s="89" t="s">
@@ -46368,16 +47803,16 @@
         <v>86</v>
       </c>
       <c r="N18" s="113"/>
-      <c r="O18" s="146" t="s">
+      <c r="O18" s="135" t="s">
         <v>225</v>
       </c>
-      <c r="P18" s="148" t="s">
+      <c r="P18" s="137" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="19" spans="2:16">
-      <c r="B19" s="259"/>
-      <c r="C19" s="254"/>
+      <c r="B19" s="303"/>
+      <c r="C19" s="298"/>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="89" t="s">
@@ -46397,16 +47832,16 @@
         <v>93</v>
       </c>
       <c r="N19" s="100"/>
-      <c r="O19" s="146" t="s">
+      <c r="O19" s="135" t="s">
         <v>217</v>
       </c>
-      <c r="P19" s="147" t="s">
+      <c r="P19" s="136" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="27">
-      <c r="B20" s="259"/>
-      <c r="C20" s="254"/>
+      <c r="B20" s="303"/>
+      <c r="C20" s="298"/>
       <c r="D20" s="85"/>
       <c r="E20" s="107"/>
       <c r="F20" s="93" t="s">
@@ -46426,16 +47861,16 @@
         <v>93</v>
       </c>
       <c r="N20" s="100"/>
-      <c r="O20" s="146" t="s">
+      <c r="O20" s="135" t="s">
         <v>220</v>
       </c>
-      <c r="P20" s="148" t="s">
+      <c r="P20" s="137" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="21" spans="2:16">
-      <c r="B21" s="259"/>
-      <c r="C21" s="254"/>
+      <c r="B21" s="303"/>
+      <c r="C21" s="298"/>
       <c r="D21" s="103" t="s">
         <v>128</v>
       </c>
@@ -46463,8 +47898,8 @@
       </c>
     </row>
     <row r="22" spans="2:16">
-      <c r="B22" s="259"/>
-      <c r="C22" s="254"/>
+      <c r="B22" s="303"/>
+      <c r="C22" s="298"/>
       <c r="D22" s="87"/>
       <c r="E22" s="104" t="s">
         <v>116</v>
@@ -46486,7 +47921,7 @@
       <c r="N22" s="91" t="s">
         <v>127</v>
       </c>
-      <c r="O22" s="149" t="s">
+      <c r="O22" s="138" t="s">
         <v>230</v>
       </c>
       <c r="P22" s="101" t="s">
@@ -46494,8 +47929,8 @@
       </c>
     </row>
     <row r="23" spans="2:16">
-      <c r="B23" s="259"/>
-      <c r="C23" s="254"/>
+      <c r="B23" s="303"/>
+      <c r="C23" s="298"/>
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="93" t="s">
@@ -46515,7 +47950,7 @@
         <v>93</v>
       </c>
       <c r="N23" s="100"/>
-      <c r="O23" s="149" t="s">
+      <c r="O23" s="138" t="s">
         <v>219</v>
       </c>
       <c r="P23" s="101" t="s">
@@ -46523,8 +47958,8 @@
       </c>
     </row>
     <row r="24" spans="2:16" ht="40.5">
-      <c r="B24" s="259"/>
-      <c r="C24" s="254"/>
+      <c r="B24" s="303"/>
+      <c r="C24" s="298"/>
       <c r="D24" s="87"/>
       <c r="E24" s="87"/>
       <c r="F24" s="93" t="s">
@@ -46544,16 +47979,16 @@
         <v>93</v>
       </c>
       <c r="N24" s="100"/>
-      <c r="O24" s="150" t="s">
+      <c r="O24" s="139" t="s">
         <v>231</v>
       </c>
-      <c r="P24" s="151" t="s">
+      <c r="P24" s="140" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="40.5">
-      <c r="B25" s="259"/>
-      <c r="C25" s="254"/>
+      <c r="B25" s="303"/>
+      <c r="C25" s="298"/>
       <c r="D25" s="87"/>
       <c r="E25" s="114"/>
       <c r="F25" s="93" t="s">
@@ -46573,16 +48008,16 @@
         <v>65</v>
       </c>
       <c r="N25" s="100"/>
-      <c r="O25" s="150" t="s">
+      <c r="O25" s="139" t="s">
         <v>233</v>
       </c>
-      <c r="P25" s="151" t="s">
+      <c r="P25" s="140" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="40.5">
-      <c r="B26" s="259"/>
-      <c r="C26" s="254"/>
+      <c r="B26" s="303"/>
+      <c r="C26" s="298"/>
       <c r="D26" s="85"/>
       <c r="E26" s="85"/>
       <c r="F26" s="93" t="s">
@@ -46602,16 +48037,16 @@
         <v>93</v>
       </c>
       <c r="N26" s="100"/>
-      <c r="O26" s="150" t="s">
+      <c r="O26" s="139" t="s">
         <v>220</v>
       </c>
-      <c r="P26" s="151" t="s">
+      <c r="P26" s="140" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="27" spans="2:16" s="116" customFormat="1">
-      <c r="B27" s="259"/>
-      <c r="C27" s="254"/>
+      <c r="B27" s="303"/>
+      <c r="C27" s="298"/>
       <c r="D27" s="82" t="s">
         <v>274</v>
       </c>
@@ -46621,26 +48056,26 @@
       <c r="H27" s="83"/>
       <c r="I27" s="83"/>
       <c r="J27" s="84"/>
-      <c r="K27" s="157" t="s">
+      <c r="K27" s="146" t="s">
         <v>63</v>
       </c>
-      <c r="L27" s="157" t="s">
+      <c r="L27" s="146" t="s">
         <v>86</v>
       </c>
-      <c r="M27" s="157" t="s">
+      <c r="M27" s="146" t="s">
         <v>65</v>
       </c>
       <c r="N27" s="113"/>
-      <c r="O27" s="159" t="s">
+      <c r="O27" s="148" t="s">
         <v>275</v>
       </c>
-      <c r="P27" s="158" t="s">
+      <c r="P27" s="147" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="28" spans="2:16" s="116" customFormat="1">
-      <c r="B28" s="259"/>
-      <c r="C28" s="254"/>
+      <c r="B28" s="303"/>
+      <c r="C28" s="298"/>
       <c r="D28" s="87"/>
       <c r="E28" s="90" t="s">
         <v>71</v>
@@ -46650,28 +48085,28 @@
       <c r="H28" s="83"/>
       <c r="I28" s="83"/>
       <c r="J28" s="84"/>
-      <c r="K28" s="157" t="s">
+      <c r="K28" s="146" t="s">
         <v>276</v>
       </c>
-      <c r="L28" s="157" t="s">
+      <c r="L28" s="146" t="s">
         <v>65</v>
       </c>
-      <c r="M28" s="157" t="s">
+      <c r="M28" s="146" t="s">
         <v>86</v>
       </c>
-      <c r="N28" s="157" t="s">
+      <c r="N28" s="146" t="s">
         <v>65</v>
       </c>
-      <c r="O28" s="159" t="s">
+      <c r="O28" s="148" t="s">
         <v>277</v>
       </c>
-      <c r="P28" s="158" t="s">
+      <c r="P28" s="147" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="29" spans="2:16" s="116" customFormat="1" ht="27">
-      <c r="B29" s="259"/>
-      <c r="C29" s="254"/>
+      <c r="B29" s="303"/>
+      <c r="C29" s="298"/>
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="83" t="s">
@@ -46681,26 +48116,26 @@
       <c r="H29" s="83"/>
       <c r="I29" s="83"/>
       <c r="J29" s="84"/>
-      <c r="K29" s="157" t="s">
+      <c r="K29" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="L29" s="157" t="s">
+      <c r="L29" s="146" t="s">
         <v>65</v>
       </c>
-      <c r="M29" s="157" t="s">
+      <c r="M29" s="146" t="s">
         <v>86</v>
       </c>
       <c r="N29" s="113"/>
-      <c r="O29" s="159" t="s">
+      <c r="O29" s="148" t="s">
         <v>280</v>
       </c>
-      <c r="P29" s="158" t="s">
+      <c r="P29" s="147" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="30" spans="2:16" s="116" customFormat="1">
-      <c r="B30" s="259"/>
-      <c r="C30" s="254"/>
+      <c r="B30" s="303"/>
+      <c r="C30" s="298"/>
       <c r="D30" s="87"/>
       <c r="E30" s="87"/>
       <c r="F30" s="83" t="s">
@@ -46710,26 +48145,26 @@
       <c r="H30" s="83"/>
       <c r="I30" s="83"/>
       <c r="J30" s="84"/>
-      <c r="K30" s="157" t="s">
+      <c r="K30" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="L30" s="157" t="s">
+      <c r="L30" s="146" t="s">
         <v>65</v>
       </c>
-      <c r="M30" s="157" t="s">
+      <c r="M30" s="146" t="s">
         <v>86</v>
       </c>
       <c r="N30" s="113"/>
-      <c r="O30" s="159" t="s">
+      <c r="O30" s="148" t="s">
         <v>282</v>
       </c>
-      <c r="P30" s="158" t="s">
+      <c r="P30" s="147" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="31" spans="2:16" s="116" customFormat="1">
-      <c r="B31" s="259"/>
-      <c r="C31" s="254"/>
+      <c r="B31" s="303"/>
+      <c r="C31" s="298"/>
       <c r="D31" s="87"/>
       <c r="E31" s="87"/>
       <c r="F31" s="83" t="s">
@@ -46739,28 +48174,28 @@
       <c r="H31" s="83"/>
       <c r="I31" s="83"/>
       <c r="J31" s="84"/>
-      <c r="K31" s="157" t="s">
+      <c r="K31" s="146" t="s">
         <v>283</v>
       </c>
-      <c r="L31" s="157" t="s">
+      <c r="L31" s="146" t="s">
         <v>65</v>
       </c>
-      <c r="M31" s="157" t="s">
+      <c r="M31" s="146" t="s">
         <v>86</v>
       </c>
-      <c r="N31" s="157" t="s">
+      <c r="N31" s="146" t="s">
         <v>65</v>
       </c>
-      <c r="O31" s="159" t="s">
+      <c r="O31" s="148" t="s">
         <v>284</v>
       </c>
-      <c r="P31" s="158" t="s">
+      <c r="P31" s="147" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="32" spans="2:16" s="116" customFormat="1" ht="27">
-      <c r="B32" s="259"/>
-      <c r="C32" s="254"/>
+      <c r="B32" s="303"/>
+      <c r="C32" s="298"/>
       <c r="D32" s="87"/>
       <c r="E32" s="87"/>
       <c r="F32" s="89" t="s">
@@ -46770,26 +48205,26 @@
       <c r="H32" s="83"/>
       <c r="I32" s="83"/>
       <c r="J32" s="84"/>
-      <c r="K32" s="157" t="s">
+      <c r="K32" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="L32" s="157" t="s">
+      <c r="L32" s="146" t="s">
         <v>65</v>
       </c>
-      <c r="M32" s="157" t="s">
+      <c r="M32" s="146" t="s">
         <v>86</v>
       </c>
       <c r="N32" s="113"/>
-      <c r="O32" s="159" t="s">
+      <c r="O32" s="148" t="s">
         <v>285</v>
       </c>
-      <c r="P32" s="158" t="s">
+      <c r="P32" s="147" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="33" spans="2:16" s="116" customFormat="1" ht="27">
-      <c r="B33" s="259"/>
-      <c r="C33" s="254"/>
+      <c r="B33" s="303"/>
+      <c r="C33" s="298"/>
       <c r="D33" s="87"/>
       <c r="E33" s="87"/>
       <c r="F33" s="90" t="s">
@@ -46799,117 +48234,117 @@
       <c r="H33" s="83"/>
       <c r="I33" s="83"/>
       <c r="J33" s="84"/>
-      <c r="K33" s="157" t="s">
+      <c r="K33" s="146" t="s">
         <v>276</v>
       </c>
-      <c r="L33" s="157" t="s">
+      <c r="L33" s="146" t="s">
         <v>86</v>
       </c>
-      <c r="M33" s="157" t="s">
+      <c r="M33" s="146" t="s">
         <v>65</v>
       </c>
-      <c r="N33" s="157" t="s">
+      <c r="N33" s="146" t="s">
         <v>65</v>
       </c>
-      <c r="O33" s="159" t="s">
+      <c r="O33" s="148" t="s">
         <v>288</v>
       </c>
-      <c r="P33" s="158" t="s">
+      <c r="P33" s="147" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="34" spans="2:16" s="116" customFormat="1">
-      <c r="B34" s="259"/>
-      <c r="C34" s="254"/>
+      <c r="B34" s="303"/>
+      <c r="C34" s="298"/>
       <c r="D34" s="87"/>
       <c r="E34" s="87"/>
-      <c r="F34" s="160"/>
+      <c r="F34" s="149"/>
       <c r="G34" s="93" t="s">
         <v>290</v>
       </c>
       <c r="H34" s="83"/>
       <c r="I34" s="83"/>
       <c r="J34" s="84"/>
-      <c r="K34" s="157" t="s">
+      <c r="K34" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="L34" s="157" t="s">
+      <c r="L34" s="146" t="s">
         <v>65</v>
       </c>
-      <c r="M34" s="157" t="s">
+      <c r="M34" s="146" t="s">
         <v>86</v>
       </c>
       <c r="N34" s="113"/>
-      <c r="O34" s="159" t="s">
+      <c r="O34" s="148" t="s">
         <v>291</v>
       </c>
-      <c r="P34" s="158" t="s">
+      <c r="P34" s="147" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="35" spans="2:16" s="116" customFormat="1" ht="27">
-      <c r="B35" s="259"/>
-      <c r="C35" s="254"/>
+      <c r="B35" s="303"/>
+      <c r="C35" s="298"/>
       <c r="D35" s="87"/>
       <c r="E35" s="87"/>
-      <c r="F35" s="160"/>
+      <c r="F35" s="149"/>
       <c r="G35" s="93" t="s">
         <v>293</v>
       </c>
       <c r="H35" s="83"/>
       <c r="I35" s="83"/>
       <c r="J35" s="84"/>
-      <c r="K35" s="157" t="s">
+      <c r="K35" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="L35" s="157" t="s">
+      <c r="L35" s="146" t="s">
         <v>65</v>
       </c>
-      <c r="M35" s="157" t="s">
+      <c r="M35" s="146" t="s">
         <v>86</v>
       </c>
       <c r="N35" s="113"/>
-      <c r="O35" s="159" t="s">
+      <c r="O35" s="148" t="s">
         <v>294</v>
       </c>
-      <c r="P35" s="158" t="s">
+      <c r="P35" s="147" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="36" spans="2:16" s="116" customFormat="1" ht="27">
-      <c r="B36" s="259"/>
-      <c r="C36" s="254"/>
+      <c r="B36" s="303"/>
+      <c r="C36" s="298"/>
       <c r="D36" s="87"/>
       <c r="E36" s="87"/>
-      <c r="F36" s="160"/>
+      <c r="F36" s="149"/>
       <c r="G36" s="93" t="s">
         <v>296</v>
       </c>
       <c r="H36" s="83"/>
       <c r="I36" s="83"/>
       <c r="J36" s="84"/>
-      <c r="K36" s="157" t="s">
+      <c r="K36" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="L36" s="157" t="s">
+      <c r="L36" s="146" t="s">
         <v>65</v>
       </c>
-      <c r="M36" s="157" t="s">
+      <c r="M36" s="146" t="s">
         <v>86</v>
       </c>
       <c r="N36" s="113"/>
-      <c r="O36" s="159" t="s">
+      <c r="O36" s="148" t="s">
         <v>297</v>
       </c>
-      <c r="P36" s="158" t="s">
+      <c r="P36" s="147" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="37" spans="2:16" s="116" customFormat="1" ht="27">
-      <c r="B37" s="259"/>
-      <c r="C37" s="254"/>
+      <c r="B37" s="303"/>
+      <c r="C37" s="298"/>
       <c r="D37" s="87"/>
-      <c r="E37" s="157"/>
+      <c r="E37" s="146"/>
       <c r="F37" s="107"/>
       <c r="G37" s="93" t="s">
         <v>75</v>
@@ -46917,26 +48352,26 @@
       <c r="H37" s="83"/>
       <c r="I37" s="83"/>
       <c r="J37" s="84"/>
-      <c r="K37" s="157" t="s">
+      <c r="K37" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="L37" s="157" t="s">
+      <c r="L37" s="146" t="s">
         <v>65</v>
       </c>
-      <c r="M37" s="143" t="s">
+      <c r="M37" s="132" t="s">
         <v>86</v>
       </c>
       <c r="N37" s="113"/>
-      <c r="O37" s="159" t="s">
+      <c r="O37" s="148" t="s">
         <v>299</v>
       </c>
-      <c r="P37" s="158" t="s">
+      <c r="P37" s="147" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="38" spans="2:16" s="116" customFormat="1">
-      <c r="B38" s="259"/>
-      <c r="C38" s="254"/>
+      <c r="B38" s="303"/>
+      <c r="C38" s="298"/>
       <c r="D38" s="87"/>
       <c r="E38" s="90" t="s">
         <v>301</v>
@@ -46946,26 +48381,26 @@
       <c r="H38" s="83"/>
       <c r="I38" s="83"/>
       <c r="J38" s="84"/>
-      <c r="K38" s="157" t="s">
+      <c r="K38" s="146" t="s">
         <v>63</v>
       </c>
-      <c r="L38" s="143" t="s">
+      <c r="L38" s="132" t="s">
         <v>86</v>
       </c>
-      <c r="M38" s="157" t="s">
+      <c r="M38" s="146" t="s">
         <v>65</v>
       </c>
       <c r="N38" s="106"/>
-      <c r="O38" s="159" t="s">
+      <c r="O38" s="148" t="s">
         <v>302</v>
       </c>
-      <c r="P38" s="158" t="s">
+      <c r="P38" s="147" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="39" spans="2:16" s="116" customFormat="1" ht="27">
-      <c r="B39" s="259"/>
-      <c r="C39" s="254"/>
+      <c r="B39" s="303"/>
+      <c r="C39" s="298"/>
       <c r="D39" s="87"/>
       <c r="E39" s="87"/>
       <c r="F39" s="90" t="s">
@@ -46975,88 +48410,88 @@
       <c r="H39" s="83"/>
       <c r="I39" s="83"/>
       <c r="J39" s="84"/>
-      <c r="K39" s="157" t="s">
+      <c r="K39" s="146" t="s">
         <v>276</v>
       </c>
-      <c r="L39" s="157" t="s">
+      <c r="L39" s="146" t="s">
         <v>65</v>
       </c>
-      <c r="M39" s="157" t="s">
+      <c r="M39" s="146" t="s">
         <v>304</v>
       </c>
-      <c r="N39" s="157" t="s">
+      <c r="N39" s="146" t="s">
         <v>65</v>
       </c>
-      <c r="O39" s="159" t="s">
+      <c r="O39" s="148" t="s">
         <v>288</v>
       </c>
-      <c r="P39" s="158" t="s">
+      <c r="P39" s="147" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="40" spans="2:16" s="116" customFormat="1">
-      <c r="B40" s="259"/>
-      <c r="C40" s="254"/>
+      <c r="B40" s="303"/>
+      <c r="C40" s="298"/>
       <c r="D40" s="87"/>
       <c r="E40" s="87"/>
-      <c r="F40" s="160"/>
+      <c r="F40" s="149"/>
       <c r="G40" s="83" t="s">
         <v>306</v>
       </c>
       <c r="H40" s="83"/>
       <c r="I40" s="83"/>
       <c r="J40" s="84"/>
-      <c r="K40" s="157" t="s">
+      <c r="K40" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="L40" s="157" t="s">
+      <c r="L40" s="146" t="s">
         <v>65</v>
       </c>
-      <c r="M40" s="157" t="s">
+      <c r="M40" s="146" t="s">
         <v>304</v>
       </c>
       <c r="N40" s="106"/>
-      <c r="O40" s="159" t="s">
+      <c r="O40" s="148" t="s">
         <v>307</v>
       </c>
-      <c r="P40" s="158" t="s">
+      <c r="P40" s="147" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="41" spans="2:16" s="116" customFormat="1">
-      <c r="B41" s="259"/>
-      <c r="C41" s="254"/>
+      <c r="B41" s="303"/>
+      <c r="C41" s="298"/>
       <c r="D41" s="87"/>
       <c r="E41" s="87"/>
-      <c r="F41" s="160"/>
+      <c r="F41" s="149"/>
       <c r="G41" s="83" t="s">
         <v>308</v>
       </c>
       <c r="H41" s="83"/>
       <c r="I41" s="83"/>
       <c r="J41" s="84"/>
-      <c r="K41" s="157" t="s">
+      <c r="K41" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="L41" s="157" t="s">
+      <c r="L41" s="146" t="s">
         <v>65</v>
       </c>
-      <c r="M41" s="157" t="s">
+      <c r="M41" s="146" t="s">
         <v>304</v>
       </c>
       <c r="N41" s="106"/>
-      <c r="O41" s="159" t="s">
+      <c r="O41" s="148" t="s">
         <v>309</v>
       </c>
-      <c r="P41" s="158" t="s">
+      <c r="P41" s="147" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="42" spans="2:16" s="116" customFormat="1" ht="27">
-      <c r="B42" s="259"/>
-      <c r="C42" s="254"/>
-      <c r="D42" s="157"/>
-      <c r="E42" s="157"/>
+      <c r="B42" s="303"/>
+      <c r="C42" s="298"/>
+      <c r="D42" s="146"/>
+      <c r="E42" s="146"/>
       <c r="F42" s="84"/>
       <c r="G42" s="93" t="s">
         <v>75</v>
@@ -47064,25 +48499,25 @@
       <c r="H42" s="83"/>
       <c r="I42" s="83"/>
       <c r="J42" s="84"/>
-      <c r="K42" s="157" t="s">
+      <c r="K42" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="L42" s="157" t="s">
+      <c r="L42" s="146" t="s">
         <v>65</v>
       </c>
-      <c r="M42" s="157" t="s">
+      <c r="M42" s="146" t="s">
         <v>304</v>
       </c>
       <c r="N42" s="106"/>
-      <c r="O42" s="159" t="s">
+      <c r="O42" s="148" t="s">
         <v>299</v>
       </c>
-      <c r="P42" s="158" t="s">
+      <c r="P42" s="147" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="43" spans="2:16">
-      <c r="B43" s="218" t="s">
+      <c r="B43" s="250" t="s">
         <v>88</v>
       </c>
       <c r="C43" s="92">
@@ -47117,23 +48552,23 @@
       </c>
     </row>
     <row r="44" spans="2:16" ht="14.25" thickBot="1">
-      <c r="B44" s="219"/>
-      <c r="C44" s="256" t="s">
+      <c r="B44" s="251"/>
+      <c r="C44" s="300" t="s">
         <v>187</v>
       </c>
-      <c r="D44" s="257"/>
-      <c r="E44" s="257"/>
-      <c r="F44" s="257"/>
-      <c r="G44" s="257"/>
-      <c r="H44" s="257"/>
-      <c r="I44" s="257"/>
-      <c r="J44" s="257"/>
-      <c r="K44" s="257"/>
-      <c r="L44" s="257"/>
-      <c r="M44" s="257"/>
-      <c r="N44" s="257"/>
-      <c r="O44" s="257"/>
-      <c r="P44" s="257"/>
+      <c r="D44" s="301"/>
+      <c r="E44" s="301"/>
+      <c r="F44" s="301"/>
+      <c r="G44" s="301"/>
+      <c r="H44" s="301"/>
+      <c r="I44" s="301"/>
+      <c r="J44" s="301"/>
+      <c r="K44" s="301"/>
+      <c r="L44" s="301"/>
+      <c r="M44" s="301"/>
+      <c r="N44" s="301"/>
+      <c r="O44" s="301"/>
+      <c r="P44" s="301"/>
     </row>
     <row r="45" spans="2:16">
       <c r="B45" s="78"/>
@@ -47186,10 +48621,1620 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="77" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="75" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="6" max="14" man="1"/>
     <brk id="44" max="14" man="1"/>
   </rowBreaks>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="B1:P22"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="2.625" style="158" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="158" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="158" customWidth="1"/>
+    <col min="4" max="8" width="2.75" style="158" customWidth="1"/>
+    <col min="9" max="9" width="11.125" style="158" customWidth="1"/>
+    <col min="10" max="10" width="9.625" style="158" customWidth="1"/>
+    <col min="11" max="11" width="10.625" style="158" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.875" style="158" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="158" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.125" style="158" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.5" style="158" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.875" style="158" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="158"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" ht="14.25" thickBot="1"/>
+    <row r="2" spans="2:16">
+      <c r="B2" s="314" t="s">
+        <v>402</v>
+      </c>
+      <c r="C2" s="243"/>
+      <c r="D2" s="284" t="s">
+        <v>394</v>
+      </c>
+      <c r="E2" s="284"/>
+      <c r="F2" s="284"/>
+      <c r="G2" s="284"/>
+      <c r="H2" s="284"/>
+      <c r="I2" s="285"/>
+    </row>
+    <row r="3" spans="2:16" ht="14.25" thickBot="1">
+      <c r="B3" s="315" t="s">
+        <v>403</v>
+      </c>
+      <c r="C3" s="316"/>
+      <c r="D3" s="286" t="s">
+        <v>395</v>
+      </c>
+      <c r="E3" s="286"/>
+      <c r="F3" s="286"/>
+      <c r="G3" s="286"/>
+      <c r="H3" s="286"/>
+      <c r="I3" s="287"/>
+    </row>
+    <row r="4" spans="2:16" ht="14.25" thickBot="1">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="2:16" ht="14.25" thickBot="1">
+      <c r="B5" s="305" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="306"/>
+      <c r="D5" s="307"/>
+      <c r="E5" s="308" t="s">
+        <v>397</v>
+      </c>
+      <c r="F5" s="309"/>
+      <c r="G5" s="309"/>
+      <c r="H5" s="309"/>
+      <c r="I5" s="309"/>
+      <c r="J5" s="309"/>
+      <c r="K5" s="309"/>
+      <c r="L5" s="309"/>
+      <c r="M5" s="309"/>
+      <c r="N5" s="309"/>
+      <c r="O5" s="310"/>
+      <c r="P5" s="11"/>
+    </row>
+    <row r="6" spans="2:16" ht="14.25" thickBot="1">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" spans="2:16" ht="14.25" thickBot="1">
+      <c r="B7" s="39" t="s">
+        <v>404</v>
+      </c>
+      <c r="C7" s="159" t="s">
+        <v>405</v>
+      </c>
+      <c r="D7" s="290" t="s">
+        <v>406</v>
+      </c>
+      <c r="E7" s="291"/>
+      <c r="F7" s="291"/>
+      <c r="G7" s="291"/>
+      <c r="H7" s="291"/>
+      <c r="I7" s="291"/>
+      <c r="J7" s="292"/>
+      <c r="K7" s="40" t="s">
+        <v>407</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="N7" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="O7" s="206" t="s">
+        <v>173</v>
+      </c>
+      <c r="P7" s="41" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="14.25" thickTop="1">
+      <c r="B8" s="317" t="s">
+        <v>408</v>
+      </c>
+      <c r="C8" s="318" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="178" t="s">
+        <v>322</v>
+      </c>
+      <c r="E8" s="179"/>
+      <c r="F8" s="179"/>
+      <c r="G8" s="179"/>
+      <c r="H8" s="179"/>
+      <c r="I8" s="179"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="84" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" s="146" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" s="146" t="s">
+        <v>324</v>
+      </c>
+      <c r="N8" s="180"/>
+      <c r="O8" s="148" t="s">
+        <v>427</v>
+      </c>
+      <c r="P8" s="136" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="40.5">
+      <c r="B9" s="317"/>
+      <c r="C9" s="318"/>
+      <c r="D9" s="181" t="s">
+        <v>326</v>
+      </c>
+      <c r="E9" s="182"/>
+      <c r="F9" s="182"/>
+      <c r="G9" s="182"/>
+      <c r="H9" s="182"/>
+      <c r="I9" s="182"/>
+      <c r="J9" s="183"/>
+      <c r="K9" s="149" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="87" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9" s="87" t="s">
+        <v>323</v>
+      </c>
+      <c r="N9" s="184"/>
+      <c r="O9" s="207" t="s">
+        <v>428</v>
+      </c>
+      <c r="P9" s="185" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="27">
+      <c r="B10" s="317"/>
+      <c r="C10" s="318"/>
+      <c r="D10" s="82" t="s">
+        <v>327</v>
+      </c>
+      <c r="E10" s="94"/>
+      <c r="F10" s="186"/>
+      <c r="G10" s="186"/>
+      <c r="H10" s="186"/>
+      <c r="I10" s="186"/>
+      <c r="J10" s="187"/>
+      <c r="K10" s="187" t="s">
+        <v>328</v>
+      </c>
+      <c r="L10" s="132" t="s">
+        <v>65</v>
+      </c>
+      <c r="M10" s="132" t="s">
+        <v>323</v>
+      </c>
+      <c r="N10" s="132" t="s">
+        <v>323</v>
+      </c>
+      <c r="O10" s="208" t="s">
+        <v>430</v>
+      </c>
+      <c r="P10" s="112" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="27">
+      <c r="B11" s="317"/>
+      <c r="C11" s="318"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="103" t="s">
+        <v>329</v>
+      </c>
+      <c r="F11" s="188"/>
+      <c r="G11" s="186"/>
+      <c r="H11" s="186"/>
+      <c r="I11" s="186"/>
+      <c r="J11" s="187"/>
+      <c r="K11" s="84" t="s">
+        <v>328</v>
+      </c>
+      <c r="L11" s="146" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" s="146" t="s">
+        <v>324</v>
+      </c>
+      <c r="N11" s="146" t="s">
+        <v>323</v>
+      </c>
+      <c r="O11" s="148" t="s">
+        <v>431</v>
+      </c>
+      <c r="P11" s="147" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="27">
+      <c r="B12" s="317"/>
+      <c r="C12" s="318"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="189" t="s">
+        <v>330</v>
+      </c>
+      <c r="G12" s="188"/>
+      <c r="H12" s="186"/>
+      <c r="I12" s="186"/>
+      <c r="J12" s="187"/>
+      <c r="K12" s="84" t="s">
+        <v>64</v>
+      </c>
+      <c r="L12" s="146" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" s="146" t="s">
+        <v>323</v>
+      </c>
+      <c r="N12" s="184"/>
+      <c r="O12" s="148" t="s">
+        <v>433</v>
+      </c>
+      <c r="P12" s="147" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16">
+      <c r="B13" s="317"/>
+      <c r="C13" s="318"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="103" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="188"/>
+      <c r="H13" s="186"/>
+      <c r="I13" s="186"/>
+      <c r="J13" s="187"/>
+      <c r="K13" s="84" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="146" t="s">
+        <v>65</v>
+      </c>
+      <c r="M13" s="146" t="s">
+        <v>323</v>
+      </c>
+      <c r="N13" s="184"/>
+      <c r="O13" s="148" t="s">
+        <v>435</v>
+      </c>
+      <c r="P13" s="136" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16">
+      <c r="B14" s="317"/>
+      <c r="C14" s="318"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="93" t="s">
+        <v>332</v>
+      </c>
+      <c r="G14" s="188"/>
+      <c r="H14" s="186"/>
+      <c r="I14" s="186"/>
+      <c r="J14" s="187"/>
+      <c r="K14" s="84" t="s">
+        <v>333</v>
+      </c>
+      <c r="L14" s="146" t="s">
+        <v>65</v>
+      </c>
+      <c r="M14" s="146" t="s">
+        <v>324</v>
+      </c>
+      <c r="N14" s="184"/>
+      <c r="O14" s="148" t="s">
+        <v>436</v>
+      </c>
+      <c r="P14" s="136" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" ht="40.5">
+      <c r="B15" s="317"/>
+      <c r="C15" s="318"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="188"/>
+      <c r="H15" s="186"/>
+      <c r="I15" s="186"/>
+      <c r="J15" s="187"/>
+      <c r="K15" s="84" t="s">
+        <v>64</v>
+      </c>
+      <c r="L15" s="146" t="s">
+        <v>65</v>
+      </c>
+      <c r="M15" s="146" t="s">
+        <v>86</v>
+      </c>
+      <c r="N15" s="113"/>
+      <c r="O15" s="148" t="s">
+        <v>437</v>
+      </c>
+      <c r="P15" s="147" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="B16" s="317"/>
+      <c r="C16" s="318"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="93" t="s">
+        <v>334</v>
+      </c>
+      <c r="G16" s="186"/>
+      <c r="H16" s="186"/>
+      <c r="I16" s="186"/>
+      <c r="J16" s="187"/>
+      <c r="K16" s="84" t="s">
+        <v>64</v>
+      </c>
+      <c r="L16" s="146" t="s">
+        <v>65</v>
+      </c>
+      <c r="M16" s="146" t="s">
+        <v>323</v>
+      </c>
+      <c r="N16" s="100"/>
+      <c r="O16" s="148" t="s">
+        <v>335</v>
+      </c>
+      <c r="P16" s="136" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" ht="121.5">
+      <c r="B17" s="317"/>
+      <c r="C17" s="318"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="181" t="s">
+        <v>336</v>
+      </c>
+      <c r="G17" s="182"/>
+      <c r="H17" s="182"/>
+      <c r="I17" s="182"/>
+      <c r="J17" s="183"/>
+      <c r="K17" s="84" t="s">
+        <v>333</v>
+      </c>
+      <c r="L17" s="146" t="s">
+        <v>65</v>
+      </c>
+      <c r="M17" s="146" t="s">
+        <v>337</v>
+      </c>
+      <c r="N17" s="184"/>
+      <c r="O17" s="148" t="s">
+        <v>439</v>
+      </c>
+      <c r="P17" s="147" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" ht="162">
+      <c r="B18" s="317"/>
+      <c r="C18" s="318"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="93" t="s">
+        <v>338</v>
+      </c>
+      <c r="G18" s="186"/>
+      <c r="H18" s="186"/>
+      <c r="I18" s="186"/>
+      <c r="J18" s="187"/>
+      <c r="K18" s="84" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18" s="146" t="s">
+        <v>339</v>
+      </c>
+      <c r="M18" s="146" t="s">
+        <v>340</v>
+      </c>
+      <c r="N18" s="113"/>
+      <c r="O18" s="148" t="s">
+        <v>441</v>
+      </c>
+      <c r="P18" s="147" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" s="319" t="s">
+        <v>409</v>
+      </c>
+      <c r="C19" s="190">
+        <v>200</v>
+      </c>
+      <c r="D19" s="191" t="s">
+        <v>341</v>
+      </c>
+      <c r="E19" s="186"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="107"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="187" t="s">
+        <v>341</v>
+      </c>
+      <c r="L19" s="132" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" s="132" t="s">
+        <v>341</v>
+      </c>
+      <c r="N19" s="132" t="s">
+        <v>36</v>
+      </c>
+      <c r="O19" s="132" t="s">
+        <v>36</v>
+      </c>
+      <c r="P19" s="192" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" ht="14.25" thickBot="1">
+      <c r="B20" s="320"/>
+      <c r="C20" s="294" t="s">
+        <v>186</v>
+      </c>
+      <c r="D20" s="321"/>
+      <c r="E20" s="321"/>
+      <c r="F20" s="321"/>
+      <c r="G20" s="321"/>
+      <c r="H20" s="321"/>
+      <c r="I20" s="321"/>
+      <c r="J20" s="321"/>
+      <c r="K20" s="295"/>
+      <c r="L20" s="295"/>
+      <c r="M20" s="295"/>
+      <c r="N20" s="295"/>
+      <c r="O20" s="295"/>
+      <c r="P20" s="296"/>
+    </row>
+    <row r="21" spans="2:16" s="81" customFormat="1">
+      <c r="B21" s="193"/>
+      <c r="C21" s="194"/>
+      <c r="D21" s="194"/>
+      <c r="E21" s="194"/>
+      <c r="F21" s="194"/>
+      <c r="G21" s="194"/>
+      <c r="H21" s="194"/>
+      <c r="I21" s="194"/>
+      <c r="J21" s="194"/>
+      <c r="K21" s="194"/>
+      <c r="L21" s="194"/>
+      <c r="M21" s="194"/>
+      <c r="N21" s="194"/>
+      <c r="O21" s="194"/>
+      <c r="P21" s="194"/>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="C22" s="158" t="s">
+        <v>188</v>
+      </c>
+      <c r="I22" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="B8:B18"/>
+    <mergeCell ref="C8:C18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C20:P20"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:O5"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="49" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:Q15"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="4" max="8" width="3.375" customWidth="1"/>
+    <col min="9" max="9" width="15.375" customWidth="1"/>
+    <col min="10" max="10" width="3.375" customWidth="1"/>
+    <col min="11" max="11" width="2" customWidth="1"/>
+    <col min="15" max="15" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.5" customWidth="1"/>
+    <col min="17" max="17" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="14.25" thickBot="1">
+      <c r="A1" s="158"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
+      <c r="M1" s="158"/>
+      <c r="N1" s="158"/>
+      <c r="O1" s="158"/>
+      <c r="P1" s="158"/>
+      <c r="Q1" s="158"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="158"/>
+      <c r="B2" s="275" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="276"/>
+      <c r="D2" s="284" t="s">
+        <v>398</v>
+      </c>
+      <c r="E2" s="284"/>
+      <c r="F2" s="284"/>
+      <c r="G2" s="284"/>
+      <c r="H2" s="284"/>
+      <c r="I2" s="285"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="158"/>
+      <c r="M2" s="158"/>
+      <c r="N2" s="158"/>
+      <c r="O2" s="158"/>
+      <c r="P2" s="158"/>
+      <c r="Q2" s="158"/>
+    </row>
+    <row r="3" spans="1:17" ht="14.25" thickBot="1">
+      <c r="A3" s="158"/>
+      <c r="B3" s="279" t="s">
+        <v>403</v>
+      </c>
+      <c r="C3" s="280"/>
+      <c r="D3" s="286" t="s">
+        <v>399</v>
+      </c>
+      <c r="E3" s="286"/>
+      <c r="F3" s="286"/>
+      <c r="G3" s="286"/>
+      <c r="H3" s="286"/>
+      <c r="I3" s="287"/>
+      <c r="J3" s="196"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="158"/>
+      <c r="M3" s="158"/>
+      <c r="N3" s="158"/>
+      <c r="O3" s="158"/>
+      <c r="P3" s="158"/>
+      <c r="Q3" s="158"/>
+    </row>
+    <row r="4" spans="1:17" ht="14.25" thickBot="1">
+      <c r="A4" s="158"/>
+      <c r="B4" s="158"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="197"/>
+    </row>
+    <row r="5" spans="1:17" ht="14.25" thickBot="1">
+      <c r="A5" s="158"/>
+      <c r="B5" s="322" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="323"/>
+      <c r="D5" s="324" t="s">
+        <v>313</v>
+      </c>
+      <c r="E5" s="325"/>
+      <c r="F5" s="325"/>
+      <c r="G5" s="325"/>
+      <c r="H5" s="325"/>
+      <c r="I5" s="325"/>
+      <c r="J5" s="325"/>
+      <c r="K5" s="325"/>
+      <c r="L5" s="325"/>
+      <c r="M5" s="325"/>
+      <c r="N5" s="325"/>
+      <c r="O5" s="325"/>
+      <c r="P5" s="325"/>
+      <c r="Q5" s="326"/>
+    </row>
+    <row r="6" spans="1:17" ht="14.25" thickBot="1">
+      <c r="A6" s="158"/>
+      <c r="B6" s="158"/>
+      <c r="C6" s="158"/>
+      <c r="D6" s="198"/>
+      <c r="E6" s="198"/>
+      <c r="F6" s="198"/>
+      <c r="G6" s="198"/>
+      <c r="H6" s="198"/>
+      <c r="I6" s="198"/>
+      <c r="J6" s="198"/>
+      <c r="K6" s="198"/>
+      <c r="L6" s="199"/>
+      <c r="M6" s="199"/>
+      <c r="N6" s="199"/>
+      <c r="O6" s="199"/>
+      <c r="P6" s="199"/>
+      <c r="Q6" s="199"/>
+    </row>
+    <row r="7" spans="1:17" ht="14.25" thickBot="1">
+      <c r="A7" s="158"/>
+      <c r="B7" s="39" t="s">
+        <v>410</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>411</v>
+      </c>
+      <c r="D7" s="290" t="s">
+        <v>412</v>
+      </c>
+      <c r="E7" s="291"/>
+      <c r="F7" s="291"/>
+      <c r="G7" s="291"/>
+      <c r="H7" s="291"/>
+      <c r="I7" s="291"/>
+      <c r="J7" s="291"/>
+      <c r="K7" s="292"/>
+      <c r="L7" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" s="160" t="s">
+        <v>179</v>
+      </c>
+      <c r="N7" s="160" t="s">
+        <v>413</v>
+      </c>
+      <c r="O7" s="40" t="s">
+        <v>414</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q7" s="41" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="14.25" thickTop="1">
+      <c r="A8" s="158"/>
+      <c r="B8" s="327" t="s">
+        <v>408</v>
+      </c>
+      <c r="C8" s="330" t="s">
+        <v>331</v>
+      </c>
+      <c r="D8" s="89" t="s">
+        <v>342</v>
+      </c>
+      <c r="E8" s="178"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="179"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="99" t="s">
+        <v>343</v>
+      </c>
+      <c r="M8" s="99" t="s">
+        <v>340</v>
+      </c>
+      <c r="N8" s="99" t="s">
+        <v>344</v>
+      </c>
+      <c r="O8" s="113"/>
+      <c r="P8" s="99" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q8" s="200" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="27">
+      <c r="A9" s="158"/>
+      <c r="B9" s="328"/>
+      <c r="C9" s="331"/>
+      <c r="D9" s="93" t="s">
+        <v>345</v>
+      </c>
+      <c r="E9" s="93"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="146" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" s="146" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" s="146" t="s">
+        <v>324</v>
+      </c>
+      <c r="O9" s="113"/>
+      <c r="P9" s="146" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q9" s="192" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="158"/>
+      <c r="B10" s="328"/>
+      <c r="C10" s="331"/>
+      <c r="D10" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="E10" s="191"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="146" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="146" t="s">
+        <v>347</v>
+      </c>
+      <c r="N10" s="146" t="s">
+        <v>344</v>
+      </c>
+      <c r="O10" s="180"/>
+      <c r="P10" s="146" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q10" s="112" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="27">
+      <c r="A11" s="158"/>
+      <c r="B11" s="329"/>
+      <c r="C11" s="332"/>
+      <c r="D11" s="93" t="s">
+        <v>349</v>
+      </c>
+      <c r="E11" s="191"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="146" t="s">
+        <v>343</v>
+      </c>
+      <c r="M11" s="146" t="s">
+        <v>347</v>
+      </c>
+      <c r="N11" s="146" t="s">
+        <v>344</v>
+      </c>
+      <c r="O11" s="180"/>
+      <c r="P11" s="146" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q11" s="192" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="158"/>
+      <c r="B12" s="333" t="s">
+        <v>409</v>
+      </c>
+      <c r="C12" s="201">
+        <v>200</v>
+      </c>
+      <c r="D12" s="189" t="s">
+        <v>331</v>
+      </c>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="146" t="s">
+        <v>331</v>
+      </c>
+      <c r="M12" s="146" t="s">
+        <v>348</v>
+      </c>
+      <c r="N12" s="146" t="s">
+        <v>348</v>
+      </c>
+      <c r="O12" s="146" t="s">
+        <v>348</v>
+      </c>
+      <c r="P12" s="146" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q12" s="147" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="14.25" thickBot="1">
+      <c r="A13" s="158"/>
+      <c r="B13" s="320"/>
+      <c r="C13" s="294" t="s">
+        <v>186</v>
+      </c>
+      <c r="D13" s="295"/>
+      <c r="E13" s="295"/>
+      <c r="F13" s="295"/>
+      <c r="G13" s="295"/>
+      <c r="H13" s="295"/>
+      <c r="I13" s="295"/>
+      <c r="J13" s="295"/>
+      <c r="K13" s="295"/>
+      <c r="L13" s="295"/>
+      <c r="M13" s="295"/>
+      <c r="N13" s="295"/>
+      <c r="O13" s="295"/>
+      <c r="P13" s="295"/>
+      <c r="Q13" s="296"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="158"/>
+      <c r="B14" s="158"/>
+      <c r="C14" s="158"/>
+      <c r="D14" s="158"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="158"/>
+      <c r="I14" s="158"/>
+      <c r="J14" s="158"/>
+      <c r="K14" s="158"/>
+      <c r="L14" s="158"/>
+      <c r="M14" s="158"/>
+      <c r="N14" s="158"/>
+      <c r="O14" s="158"/>
+      <c r="P14" s="158"/>
+      <c r="Q14" s="158"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="C15" s="158" t="s">
+        <v>420</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C13:Q13"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:Q5"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="52" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:N27"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="2.625" style="158" customWidth="1"/>
+    <col min="2" max="2" width="10" style="158" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.125" style="158" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="3.125" style="158" customWidth="1"/>
+    <col min="8" max="8" width="14.25" style="158" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="158" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="158" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" style="158" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.875" style="158" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="38.375" style="158" customWidth="1"/>
+    <col min="14" max="14" width="41.25" style="158" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="158"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="14.25" thickBot="1"/>
+    <row r="2" spans="2:14">
+      <c r="B2" s="275" t="s">
+        <v>415</v>
+      </c>
+      <c r="C2" s="276"/>
+      <c r="D2" s="284" t="s">
+        <v>400</v>
+      </c>
+      <c r="E2" s="284"/>
+      <c r="F2" s="284"/>
+      <c r="G2" s="284"/>
+      <c r="H2" s="284"/>
+      <c r="I2" s="285"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+    </row>
+    <row r="3" spans="2:14" ht="14.25" thickBot="1">
+      <c r="B3" s="279" t="s">
+        <v>416</v>
+      </c>
+      <c r="C3" s="280"/>
+      <c r="D3" s="334" t="s">
+        <v>312</v>
+      </c>
+      <c r="E3" s="335"/>
+      <c r="F3" s="335"/>
+      <c r="G3" s="335"/>
+      <c r="H3" s="335"/>
+      <c r="I3" s="336"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+    </row>
+    <row r="4" spans="2:14" ht="14.25" thickBot="1">
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+    </row>
+    <row r="5" spans="2:14" ht="14.25" thickBot="1">
+      <c r="B5" s="260" t="s">
+        <v>351</v>
+      </c>
+      <c r="C5" s="261"/>
+      <c r="D5" s="288" t="s">
+        <v>352</v>
+      </c>
+      <c r="E5" s="288"/>
+      <c r="F5" s="288"/>
+      <c r="G5" s="288"/>
+      <c r="H5" s="288"/>
+      <c r="I5" s="288"/>
+      <c r="J5" s="288"/>
+      <c r="K5" s="288"/>
+      <c r="L5" s="288"/>
+      <c r="M5" s="288"/>
+      <c r="N5" s="289"/>
+    </row>
+    <row r="6" spans="2:14" ht="14.25" thickBot="1">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" spans="2:14" ht="14.25" thickBot="1">
+      <c r="B7" s="39" t="s">
+        <v>417</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>418</v>
+      </c>
+      <c r="D7" s="290" t="s">
+        <v>406</v>
+      </c>
+      <c r="E7" s="291"/>
+      <c r="F7" s="291"/>
+      <c r="G7" s="291"/>
+      <c r="H7" s="292"/>
+      <c r="I7" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>419</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>414</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="N7" s="41" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="14.25" thickTop="1">
+      <c r="B8" s="333" t="s">
+        <v>408</v>
+      </c>
+      <c r="C8" s="293" t="s">
+        <v>348</v>
+      </c>
+      <c r="D8" s="82" t="s">
+        <v>353</v>
+      </c>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="146" t="s">
+        <v>354</v>
+      </c>
+      <c r="J8" s="146" t="s">
+        <v>347</v>
+      </c>
+      <c r="K8" s="146" t="s">
+        <v>324</v>
+      </c>
+      <c r="L8" s="202"/>
+      <c r="M8" s="146" t="s">
+        <v>348</v>
+      </c>
+      <c r="N8" s="147" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="333"/>
+      <c r="C9" s="293"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="89" t="s">
+        <v>342</v>
+      </c>
+      <c r="F9" s="89"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="146" t="s">
+        <v>343</v>
+      </c>
+      <c r="J9" s="146" t="s">
+        <v>344</v>
+      </c>
+      <c r="K9" s="146" t="s">
+        <v>355</v>
+      </c>
+      <c r="L9" s="180"/>
+      <c r="M9" s="146" t="s">
+        <v>447</v>
+      </c>
+      <c r="N9" s="147" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="81">
+      <c r="B10" s="333"/>
+      <c r="C10" s="293"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="88" t="s">
+        <v>356</v>
+      </c>
+      <c r="F10" s="88"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="146" t="s">
+        <v>343</v>
+      </c>
+      <c r="J10" s="146" t="s">
+        <v>347</v>
+      </c>
+      <c r="K10" s="146" t="s">
+        <v>344</v>
+      </c>
+      <c r="L10" s="180"/>
+      <c r="M10" s="146" t="s">
+        <v>448</v>
+      </c>
+      <c r="N10" s="147" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="27">
+      <c r="B11" s="333"/>
+      <c r="C11" s="293"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="88" t="s">
+        <v>357</v>
+      </c>
+      <c r="F11" s="88"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="146" t="s">
+        <v>343</v>
+      </c>
+      <c r="J11" s="146" t="s">
+        <v>347</v>
+      </c>
+      <c r="K11" s="146" t="s">
+        <v>358</v>
+      </c>
+      <c r="L11" s="180"/>
+      <c r="M11" s="146" t="s">
+        <v>449</v>
+      </c>
+      <c r="N11" s="147" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="333"/>
+      <c r="C12" s="293"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="90" t="s">
+        <v>359</v>
+      </c>
+      <c r="F12" s="90"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="149"/>
+      <c r="I12" s="146" t="s">
+        <v>360</v>
+      </c>
+      <c r="J12" s="146" t="s">
+        <v>347</v>
+      </c>
+      <c r="K12" s="146" t="s">
+        <v>323</v>
+      </c>
+      <c r="L12" s="180"/>
+      <c r="M12" s="146" t="s">
+        <v>452</v>
+      </c>
+      <c r="N12" s="147" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" s="333"/>
+      <c r="C13" s="293"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="203"/>
+      <c r="F13" s="82" t="s">
+        <v>361</v>
+      </c>
+      <c r="G13" s="204"/>
+      <c r="H13" s="183"/>
+      <c r="I13" s="132" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" s="146" t="s">
+        <v>344</v>
+      </c>
+      <c r="K13" s="146" t="s">
+        <v>347</v>
+      </c>
+      <c r="L13" s="180"/>
+      <c r="M13" s="146" t="s">
+        <v>362</v>
+      </c>
+      <c r="N13" s="147" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" s="333"/>
+      <c r="C14" s="293"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="203"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="205" t="s">
+        <v>363</v>
+      </c>
+      <c r="H14" s="183"/>
+      <c r="I14" s="132" t="s">
+        <v>364</v>
+      </c>
+      <c r="J14" s="146" t="s">
+        <v>347</v>
+      </c>
+      <c r="K14" s="146" t="s">
+        <v>324</v>
+      </c>
+      <c r="L14" s="180"/>
+      <c r="M14" s="146" t="s">
+        <v>455</v>
+      </c>
+      <c r="N14" s="147" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" s="333"/>
+      <c r="C15" s="293"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="203"/>
+      <c r="F15" s="82" t="s">
+        <v>365</v>
+      </c>
+      <c r="G15" s="94"/>
+      <c r="H15" s="187"/>
+      <c r="I15" s="132" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" s="146" t="s">
+        <v>86</v>
+      </c>
+      <c r="K15" s="146" t="s">
+        <v>65</v>
+      </c>
+      <c r="L15" s="180"/>
+      <c r="M15" s="146" t="s">
+        <v>365</v>
+      </c>
+      <c r="N15" s="147" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" s="333"/>
+      <c r="C16" s="293"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="203"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="89" t="s">
+        <v>366</v>
+      </c>
+      <c r="H16" s="84"/>
+      <c r="I16" s="132" t="s">
+        <v>367</v>
+      </c>
+      <c r="J16" s="146" t="s">
+        <v>65</v>
+      </c>
+      <c r="K16" s="146" t="s">
+        <v>86</v>
+      </c>
+      <c r="L16" s="180"/>
+      <c r="M16" s="146" t="s">
+        <v>457</v>
+      </c>
+      <c r="N16" s="147" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="333"/>
+      <c r="C17" s="293"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="203"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="89" t="s">
+        <v>368</v>
+      </c>
+      <c r="H17" s="84"/>
+      <c r="I17" s="132" t="s">
+        <v>367</v>
+      </c>
+      <c r="J17" s="146" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" s="146" t="s">
+        <v>65</v>
+      </c>
+      <c r="L17" s="180"/>
+      <c r="M17" s="146" t="s">
+        <v>460</v>
+      </c>
+      <c r="N17" s="147" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="67.5">
+      <c r="B18" s="333"/>
+      <c r="C18" s="293"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="203"/>
+      <c r="F18" s="103" t="s">
+        <v>369</v>
+      </c>
+      <c r="G18" s="83"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="132" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" s="146" t="s">
+        <v>86</v>
+      </c>
+      <c r="K18" s="146" t="s">
+        <v>65</v>
+      </c>
+      <c r="L18" s="180"/>
+      <c r="M18" s="146" t="s">
+        <v>461</v>
+      </c>
+      <c r="N18" s="147" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19" s="333"/>
+      <c r="C19" s="293"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="203"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="82" t="s">
+        <v>370</v>
+      </c>
+      <c r="H19" s="84"/>
+      <c r="I19" s="132" t="s">
+        <v>371</v>
+      </c>
+      <c r="J19" s="146" t="s">
+        <v>65</v>
+      </c>
+      <c r="K19" s="146" t="s">
+        <v>86</v>
+      </c>
+      <c r="L19" s="132" t="s">
+        <v>344</v>
+      </c>
+      <c r="M19" s="146" t="s">
+        <v>463</v>
+      </c>
+      <c r="N19" s="147" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="27">
+      <c r="B20" s="333"/>
+      <c r="C20" s="293"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="203"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="89" t="s">
+        <v>372</v>
+      </c>
+      <c r="I20" s="132" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20" s="146" t="s">
+        <v>65</v>
+      </c>
+      <c r="K20" s="146" t="s">
+        <v>323</v>
+      </c>
+      <c r="L20" s="180"/>
+      <c r="M20" s="146" t="s">
+        <v>464</v>
+      </c>
+      <c r="N20" s="147" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="27">
+      <c r="B21" s="333"/>
+      <c r="C21" s="293"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="203"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="89" t="s">
+        <v>373</v>
+      </c>
+      <c r="I21" s="132" t="s">
+        <v>64</v>
+      </c>
+      <c r="J21" s="146" t="s">
+        <v>65</v>
+      </c>
+      <c r="K21" s="146" t="s">
+        <v>86</v>
+      </c>
+      <c r="L21" s="180"/>
+      <c r="M21" s="146" t="s">
+        <v>466</v>
+      </c>
+      <c r="N21" s="147" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="B22" s="333"/>
+      <c r="C22" s="293"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="203"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="89" t="s">
+        <v>374</v>
+      </c>
+      <c r="I22" s="132" t="s">
+        <v>367</v>
+      </c>
+      <c r="J22" s="146" t="s">
+        <v>65</v>
+      </c>
+      <c r="K22" s="146" t="s">
+        <v>86</v>
+      </c>
+      <c r="L22" s="180"/>
+      <c r="M22" s="146" t="s">
+        <v>468</v>
+      </c>
+      <c r="N22" s="147" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="B23" s="333"/>
+      <c r="C23" s="293"/>
+      <c r="D23" s="146"/>
+      <c r="E23" s="203"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="89" t="s">
+        <v>366</v>
+      </c>
+      <c r="I23" s="132" t="s">
+        <v>367</v>
+      </c>
+      <c r="J23" s="146" t="s">
+        <v>65</v>
+      </c>
+      <c r="K23" s="146" t="s">
+        <v>86</v>
+      </c>
+      <c r="L23" s="180"/>
+      <c r="M23" s="146" t="s">
+        <v>470</v>
+      </c>
+      <c r="N23" s="147" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="B24" s="319" t="s">
+        <v>409</v>
+      </c>
+      <c r="C24" s="92">
+        <v>200</v>
+      </c>
+      <c r="D24" s="93" t="s">
+        <v>348</v>
+      </c>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="146" t="s">
+        <v>348</v>
+      </c>
+      <c r="J24" s="146" t="s">
+        <v>331</v>
+      </c>
+      <c r="K24" s="146" t="s">
+        <v>348</v>
+      </c>
+      <c r="L24" s="146" t="s">
+        <v>348</v>
+      </c>
+      <c r="M24" s="146" t="s">
+        <v>348</v>
+      </c>
+      <c r="N24" s="147" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="14.25" thickBot="1">
+      <c r="B25" s="320"/>
+      <c r="C25" s="294" t="s">
+        <v>186</v>
+      </c>
+      <c r="D25" s="295"/>
+      <c r="E25" s="295"/>
+      <c r="F25" s="295"/>
+      <c r="G25" s="295"/>
+      <c r="H25" s="295"/>
+      <c r="I25" s="295"/>
+      <c r="J25" s="295"/>
+      <c r="K25" s="295"/>
+      <c r="L25" s="295"/>
+      <c r="M25" s="295"/>
+      <c r="N25" s="296"/>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="C27" s="158" t="s">
+        <v>188</v>
+      </c>
+      <c r="I27" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B8:B23"/>
+    <mergeCell ref="C8:C23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C25:N25"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:N5"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="75" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>